--- a/Base-宽表/用户标签整理/用户画像标签系统V2.0版本-数据统计.xlsx
+++ b/Base-宽表/用户标签整理/用户画像标签系统V2.0版本-数据统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="678">
   <si>
     <t>分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2793,6 +2793,22 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是内部员工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_v_full_customer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_employee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上员工online，门店国安侠store_staff。非员工：N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2899,7 +2915,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2927,6 +2943,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3043,7 +3065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3125,40 +3147,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3179,17 +3186,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3638,7 +3678,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3665,7 +3705,7 @@
       <c r="B1" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="27" t="s">
         <v>667</v>
       </c>
     </row>
@@ -3676,7 +3716,7 @@
       <c r="B2" s="23" t="s">
         <v>634</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="27" t="s">
         <v>668</v>
       </c>
     </row>
@@ -3687,7 +3727,7 @@
       <c r="B3" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="22" t="s">
@@ -3696,7 +3736,7 @@
       <c r="B4" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" ht="40.5">
       <c r="A5" s="22" t="s">
@@ -3705,7 +3745,7 @@
       <c r="B5" s="23" t="s">
         <v>639</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:3" ht="54">
       <c r="A6" s="22" t="s">
@@ -3714,16 +3754,16 @@
       <c r="B6" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3" ht="27">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="29" t="s">
         <v>669</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="28" t="s">
         <v>670</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="27" t="s">
         <v>671</v>
       </c>
     </row>
@@ -3839,10 +3879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J204"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57:H62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.35" customHeight="1"/>
@@ -3895,7 +3935,7 @@
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3952,10 +3992,10 @@
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="37" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="6"/>
@@ -3976,8 +4016,8 @@
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="43"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
         <v>16</v>
@@ -3996,8 +4036,8 @@
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="44"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
         <v>16</v>
@@ -4005,7 +4045,7 @@
     </row>
     <row r="7" spans="1:10" ht="28.35" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="37"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
@@ -4051,7 +4091,7 @@
     </row>
     <row r="9" spans="1:10" ht="28.35" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -4075,7 +4115,7 @@
     </row>
     <row r="10" spans="1:10" ht="28.35" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="29"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="6" t="s">
         <v>38</v>
       </c>
@@ -4097,7 +4137,7 @@
     </row>
     <row r="11" spans="1:10" ht="28.35" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="6" t="s">
         <v>41</v>
       </c>
@@ -4119,7 +4159,7 @@
     </row>
     <row r="12" spans="1:10" ht="28.35" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
@@ -4143,7 +4183,7 @@
     </row>
     <row r="13" spans="1:10" ht="28.35" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="29"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
@@ -4167,7 +4207,7 @@
     </row>
     <row r="14" spans="1:10" ht="28.35" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="29"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="6" t="s">
         <v>52</v>
       </c>
@@ -4191,7 +4231,7 @@
     </row>
     <row r="15" spans="1:10" ht="28.35" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="32"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="10" t="s">
         <v>56</v>
       </c>
@@ -4215,7 +4255,7 @@
     </row>
     <row r="16" spans="1:10" ht="28.35" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="32" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -4239,7 +4279,7 @@
     </row>
     <row r="17" spans="1:10" ht="28.35" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="37"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="6" t="s">
         <v>65</v>
       </c>
@@ -4371,7 +4411,7 @@
     </row>
     <row r="23" spans="1:10" ht="28.35" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="36"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="7" t="s">
         <v>84</v>
       </c>
@@ -4413,45 +4453,45 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="6" t="s">
-        <v>16</v>
-      </c>
+    <row r="25" spans="1:10" s="54" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51" t="s">
+        <v>674</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>676</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>676</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>677</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10" ht="28.35" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="33"/>
+      <c r="B26" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="C26" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="11"/>
@@ -4463,17 +4503,17 @@
       <c r="A27" s="8"/>
       <c r="B27" s="33"/>
       <c r="C27" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="11"/>
@@ -4485,264 +4525,262 @@
       <c r="A28" s="8"/>
       <c r="B28" s="33"/>
       <c r="C28" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="D28" s="10"/>
       <c r="E28" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="I28" s="11"/>
       <c r="J28" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="28.35" customHeight="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>106</v>
+      <c r="B29" s="33"/>
+      <c r="C29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="J29" s="6" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28.35" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="36"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.35" customHeight="1">
       <c r="A31" s="8"/>
-      <c r="B31" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="6"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="28.35" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="B32" s="29"/>
+      <c r="B32" s="30" t="s">
+        <v>113</v>
+      </c>
       <c r="C32" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>74</v>
+      <c r="E32" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>120</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="28.35" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>122</v>
-      </c>
+      <c r="B33" s="40"/>
+      <c r="C33" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="6"/>
       <c r="E33" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="J33" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="28.35" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="10" t="s">
-        <v>125</v>
+      <c r="B34" s="40"/>
+      <c r="C34" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="I34" s="6"/>
       <c r="J34" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="28.35" customHeight="1">
       <c r="A35" s="8"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="6" t="s">
-        <v>129</v>
+      <c r="B35" s="42"/>
+      <c r="C35" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>74</v>
+        <v>126</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I35" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="J35" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="28.35" customHeight="1">
       <c r="A36" s="8"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="10" t="s">
-        <v>133</v>
+      <c r="B36" s="40"/>
+      <c r="C36" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="28.35" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I37" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
       <c r="J37" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="28.35" customHeight="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="37"/>
+      <c r="B38" s="32" t="s">
+        <v>137</v>
+      </c>
       <c r="C38" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>141</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -4752,21 +4790,21 @@
     </row>
     <row r="39" spans="1:10" ht="28.35" customHeight="1">
       <c r="A39" s="13"/>
-      <c r="B39" s="37"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>141</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -4776,23 +4814,21 @@
     </row>
     <row r="40" spans="1:10" ht="28.35" customHeight="1">
       <c r="A40" s="13"/>
-      <c r="B40" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>148</v>
+      <c r="B40" s="32"/>
+      <c r="C40" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -4802,9 +4838,11 @@
     </row>
     <row r="41" spans="1:10" ht="28.35" customHeight="1">
       <c r="A41" s="13"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="7" t="s">
-        <v>151</v>
+      <c r="B41" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>122</v>
@@ -4813,10 +4851,10 @@
         <v>35</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -4826,9 +4864,9 @@
     </row>
     <row r="42" spans="1:10" ht="28.35" customHeight="1">
       <c r="A42" s="13"/>
-      <c r="B42" s="37"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>122</v>
@@ -4837,10 +4875,10 @@
         <v>35</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -4850,21 +4888,21 @@
     </row>
     <row r="43" spans="1:10" ht="28.35" customHeight="1">
       <c r="A43" s="13"/>
-      <c r="B43" s="37"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -4874,79 +4912,77 @@
     </row>
     <row r="44" spans="1:10" ht="28.35" customHeight="1">
       <c r="A44" s="13"/>
-      <c r="B44" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>161</v>
+      <c r="B44" s="32"/>
+      <c r="C44" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="28.35" customHeight="1">
       <c r="A45" s="13"/>
-      <c r="B45" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>165</v>
+      <c r="B45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>166</v>
+      <c r="F45" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="6" t="s">
-        <v>168</v>
-      </c>
+      <c r="I45" s="6"/>
       <c r="J45" s="6" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="28.35" customHeight="1">
       <c r="A46" s="13"/>
-      <c r="B46" s="31"/>
+      <c r="B46" s="43" t="s">
+        <v>164</v>
+      </c>
       <c r="C46" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>108</v>
@@ -4954,52 +4990,52 @@
     </row>
     <row r="47" spans="1:10" ht="28.35" customHeight="1">
       <c r="A47" s="13"/>
-      <c r="B47" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>174</v>
+      <c r="B47" s="44"/>
+      <c r="C47" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I47" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="J47" s="6" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="28.35" customHeight="1">
       <c r="A48" s="13"/>
-      <c r="B48" s="32"/>
+      <c r="B48" s="30" t="s">
+        <v>173</v>
+      </c>
       <c r="C48" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6" t="s">
@@ -5008,47 +5044,49 @@
     </row>
     <row r="49" spans="1:10" ht="28.35" customHeight="1">
       <c r="A49" s="13"/>
-      <c r="B49" s="28" t="s">
-        <v>184</v>
-      </c>
+      <c r="B49" s="31"/>
       <c r="C49" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H49" s="6"/>
+        <v>182</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="28.35" customHeight="1">
       <c r="A50" s="13"/>
-      <c r="B50" s="29"/>
+      <c r="B50" s="30" t="s">
+        <v>184</v>
+      </c>
       <c r="C50" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -5058,35 +5096,33 @@
     </row>
     <row r="51" spans="1:10" ht="28.35" customHeight="1">
       <c r="A51" s="13"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="10" t="s">
-        <v>190</v>
+      <c r="B51" s="40"/>
+      <c r="C51" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>191</v>
+        <v>13</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H51" s="6"/>
-      <c r="I51" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="I51" s="6"/>
       <c r="J51" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="28.35" customHeight="1">
       <c r="A52" s="13"/>
-      <c r="B52" s="31"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>130</v>
@@ -5098,11 +5134,11 @@
         <v>191</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>108</v>
@@ -5110,37 +5146,37 @@
     </row>
     <row r="53" spans="1:10" ht="28.35" customHeight="1">
       <c r="A53" s="13"/>
-      <c r="B53" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>198</v>
+      <c r="B53" s="44"/>
+      <c r="C53" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>199</v>
+        <v>126</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="I53" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="J53" s="6" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="28.35" customHeight="1">
       <c r="A54" s="13"/>
-      <c r="B54" s="2" t="s">
-        <v>201</v>
+      <c r="B54" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>130</v>
@@ -5149,44 +5185,40 @@
         <v>13</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="I54" s="6"/>
       <c r="J54" s="6" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="28.35" customHeight="1">
       <c r="A55" s="13"/>
-      <c r="B55" s="28" t="s">
-        <v>206</v>
+      <c r="B55" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>211</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="H55" s="6"/>
       <c r="I55" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J55" s="6" t="s">
         <v>108</v>
@@ -5194,9 +5226,11 @@
     </row>
     <row r="56" spans="1:10" ht="28.35" customHeight="1">
       <c r="A56" s="13"/>
-      <c r="B56" s="32"/>
+      <c r="B56" s="30" t="s">
+        <v>206</v>
+      </c>
       <c r="C56" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>130</v>
@@ -5205,16 +5239,16 @@
         <v>208</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J56" s="6" t="s">
         <v>108</v>
@@ -5222,35 +5256,39 @@
     </row>
     <row r="57" spans="1:10" ht="28.35" customHeight="1">
       <c r="A57" s="13"/>
-      <c r="B57" s="28" t="s">
-        <v>218</v>
-      </c>
+      <c r="B57" s="31"/>
       <c r="C57" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="J57" s="6" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="28.35" customHeight="1">
       <c r="A58" s="13"/>
-      <c r="B58" s="29"/>
+      <c r="B58" s="30" t="s">
+        <v>218</v>
+      </c>
       <c r="C58" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>130</v>
@@ -5259,10 +5297,10 @@
         <v>13</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -5272,9 +5310,9 @@
     </row>
     <row r="59" spans="1:10" ht="28.35" customHeight="1">
       <c r="A59" s="13"/>
-      <c r="B59" s="29"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>130</v>
@@ -5283,10 +5321,10 @@
         <v>13</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -5296,21 +5334,21 @@
     </row>
     <row r="60" spans="1:10" ht="28.35" customHeight="1">
       <c r="A60" s="13"/>
-      <c r="B60" s="29"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -5320,21 +5358,21 @@
     </row>
     <row r="61" spans="1:10" ht="28.35" customHeight="1">
       <c r="A61" s="13"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="10" t="s">
-        <v>232</v>
+      <c r="B61" s="40"/>
+      <c r="C61" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -5344,9 +5382,9 @@
     </row>
     <row r="62" spans="1:10" ht="28.35" customHeight="1">
       <c r="A62" s="13"/>
-      <c r="B62" s="30"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>130</v>
@@ -5355,10 +5393,10 @@
         <v>233</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -5368,47 +5406,45 @@
     </row>
     <row r="63" spans="1:10" ht="28.35" customHeight="1">
       <c r="A63" s="13"/>
-      <c r="B63" s="30"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H63" s="6"/>
-      <c r="I63" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="I63" s="6"/>
       <c r="J63" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="28.35" customHeight="1">
       <c r="A64" s="13"/>
-      <c r="B64" s="30"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
@@ -5420,35 +5456,35 @@
     </row>
     <row r="65" spans="1:10" ht="28.35" customHeight="1">
       <c r="A65" s="13"/>
-      <c r="B65" s="30"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6" t="s">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="28.35" customHeight="1">
       <c r="A66" s="13"/>
-      <c r="B66" s="30"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>122</v>
@@ -5457,10 +5493,10 @@
         <v>13</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6" t="s">
@@ -5472,25 +5508,25 @@
     </row>
     <row r="67" spans="1:10" ht="28.35" customHeight="1">
       <c r="A67" s="13"/>
-      <c r="B67" s="30"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6" t="s">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>108</v>
@@ -5498,25 +5534,25 @@
     </row>
     <row r="68" spans="1:10" ht="28.35" customHeight="1">
       <c r="A68" s="13"/>
-      <c r="B68" s="30"/>
+      <c r="B68" s="42"/>
       <c r="C68" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6" t="s">
-        <v>257</v>
+        <v>128</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>108</v>
@@ -5524,9 +5560,9 @@
     </row>
     <row r="69" spans="1:10" ht="28.35" customHeight="1">
       <c r="A69" s="13"/>
-      <c r="B69" s="30"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>122</v>
@@ -5535,10 +5571,10 @@
         <v>13</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6" t="s">
@@ -5550,25 +5586,25 @@
     </row>
     <row r="70" spans="1:10" ht="28.35" customHeight="1">
       <c r="A70" s="13"/>
-      <c r="B70" s="31"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6" t="s">
-        <v>128</v>
+        <v>257</v>
       </c>
       <c r="J70" s="6" t="s">
         <v>108</v>
@@ -5576,27 +5612,25 @@
     </row>
     <row r="71" spans="1:10" ht="28.35" customHeight="1">
       <c r="A71" s="13"/>
-      <c r="B71" s="33" t="s">
-        <v>262</v>
-      </c>
+      <c r="B71" s="44"/>
       <c r="C71" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6" t="s">
-        <v>266</v>
+        <v>128</v>
       </c>
       <c r="J71" s="6" t="s">
         <v>108</v>
@@ -5604,9 +5638,11 @@
     </row>
     <row r="72" spans="1:10" ht="28.35" customHeight="1">
       <c r="A72" s="13"/>
-      <c r="B72" s="33"/>
+      <c r="B72" s="33" t="s">
+        <v>262</v>
+      </c>
       <c r="C72" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>122</v>
@@ -5615,14 +5651,14 @@
         <v>13</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J72" s="6" t="s">
         <v>108</v>
@@ -5632,23 +5668,23 @@
       <c r="A73" s="13"/>
       <c r="B73" s="33"/>
       <c r="C73" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J73" s="6" t="s">
         <v>108</v>
@@ -5658,23 +5694,23 @@
       <c r="A74" s="13"/>
       <c r="B74" s="33"/>
       <c r="C74" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H74" s="6"/>
-      <c r="I74" s="16" t="s">
-        <v>276</v>
+      <c r="I74" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="J74" s="6" t="s">
         <v>108</v>
@@ -5684,7 +5720,7 @@
       <c r="A75" s="13"/>
       <c r="B75" s="33"/>
       <c r="C75" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>122</v>
@@ -5693,10 +5729,10 @@
         <v>13</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="16" t="s">
@@ -5710,23 +5746,23 @@
       <c r="A76" s="13"/>
       <c r="B76" s="33"/>
       <c r="C76" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H76" s="6"/>
-      <c r="I76" s="6" t="s">
-        <v>281</v>
+      <c r="I76" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="J76" s="6" t="s">
         <v>108</v>
@@ -5736,23 +5772,23 @@
       <c r="A77" s="13"/>
       <c r="B77" s="33"/>
       <c r="C77" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H77" s="6"/>
-      <c r="I77" s="16" t="s">
-        <v>284</v>
+      <c r="I77" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="J77" s="6" t="s">
         <v>108</v>
@@ -5762,7 +5798,7 @@
       <c r="A78" s="13"/>
       <c r="B78" s="33"/>
       <c r="C78" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>122</v>
@@ -5771,14 +5807,14 @@
         <v>13</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J78" s="6" t="s">
         <v>108</v>
@@ -5788,23 +5824,23 @@
       <c r="A79" s="13"/>
       <c r="B79" s="33"/>
       <c r="C79" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H79" s="6"/>
-      <c r="I79" s="6" t="s">
-        <v>290</v>
+      <c r="I79" s="16" t="s">
+        <v>287</v>
       </c>
       <c r="J79" s="6" t="s">
         <v>108</v>
@@ -5814,23 +5850,23 @@
       <c r="A80" s="13"/>
       <c r="B80" s="33"/>
       <c r="C80" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J80" s="6" t="s">
         <v>108</v>
@@ -5840,7 +5876,7 @@
       <c r="A81" s="13"/>
       <c r="B81" s="33"/>
       <c r="C81" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>122</v>
@@ -5849,10 +5885,10 @@
         <v>13</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6" t="s">
@@ -5866,23 +5902,23 @@
       <c r="A82" s="13"/>
       <c r="B82" s="33"/>
       <c r="C82" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>108</v>
@@ -5892,22 +5928,24 @@
       <c r="A83" s="13"/>
       <c r="B83" s="33"/>
       <c r="C83" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
+      <c r="I83" s="6" t="s">
+        <v>298</v>
+      </c>
       <c r="J83" s="6" t="s">
         <v>108</v>
       </c>
@@ -5916,7 +5954,7 @@
       <c r="A84" s="13"/>
       <c r="B84" s="33"/>
       <c r="C84" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>122</v>
@@ -5925,10 +5963,10 @@
         <v>13</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -5940,19 +5978,19 @@
       <c r="A85" s="13"/>
       <c r="B85" s="33"/>
       <c r="C85" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
@@ -5964,24 +6002,22 @@
       <c r="A86" s="13"/>
       <c r="B86" s="33"/>
       <c r="C86" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H86" s="6"/>
-      <c r="I86" s="6" t="s">
-        <v>307</v>
-      </c>
+      <c r="I86" s="6"/>
       <c r="J86" s="6" t="s">
         <v>108</v>
       </c>
@@ -5990,7 +6026,7 @@
       <c r="A87" s="13"/>
       <c r="B87" s="33"/>
       <c r="C87" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>122</v>
@@ -5999,10 +6035,10 @@
         <v>13</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6" t="s">
@@ -6016,23 +6052,23 @@
       <c r="A88" s="13"/>
       <c r="B88" s="33"/>
       <c r="C88" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J88" s="6" t="s">
         <v>108</v>
@@ -6042,23 +6078,23 @@
       <c r="A89" s="13"/>
       <c r="B89" s="33"/>
       <c r="C89" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J89" s="6" t="s">
         <v>108</v>
@@ -6068,7 +6104,7 @@
       <c r="A90" s="13"/>
       <c r="B90" s="33"/>
       <c r="C90" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>122</v>
@@ -6077,10 +6113,10 @@
         <v>13</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6" t="s">
@@ -6094,23 +6130,23 @@
       <c r="A91" s="13"/>
       <c r="B91" s="33"/>
       <c r="C91" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="J91" s="6" t="s">
         <v>108</v>
@@ -6120,23 +6156,23 @@
       <c r="A92" s="13"/>
       <c r="B92" s="33"/>
       <c r="C92" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J92" s="6" t="s">
         <v>108</v>
@@ -6146,7 +6182,7 @@
       <c r="A93" s="13"/>
       <c r="B93" s="33"/>
       <c r="C93" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>122</v>
@@ -6155,10 +6191,10 @@
         <v>13</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6" t="s">
@@ -6172,23 +6208,23 @@
       <c r="A94" s="13"/>
       <c r="B94" s="33"/>
       <c r="C94" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>108</v>
@@ -6198,23 +6234,23 @@
       <c r="A95" s="13"/>
       <c r="B95" s="33"/>
       <c r="C95" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>108</v>
@@ -6224,7 +6260,7 @@
       <c r="A96" s="13"/>
       <c r="B96" s="33"/>
       <c r="C96" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>122</v>
@@ -6233,10 +6269,10 @@
         <v>13</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6" t="s">
@@ -6250,23 +6286,23 @@
       <c r="A97" s="13"/>
       <c r="B97" s="33"/>
       <c r="C97" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J97" s="6" t="s">
         <v>108</v>
@@ -6276,23 +6312,23 @@
       <c r="A98" s="13"/>
       <c r="B98" s="33"/>
       <c r="C98" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>108</v>
@@ -6302,7 +6338,7 @@
       <c r="A99" s="13"/>
       <c r="B99" s="33"/>
       <c r="C99" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>122</v>
@@ -6311,10 +6347,10 @@
         <v>13</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6" t="s">
@@ -6328,23 +6364,23 @@
       <c r="A100" s="13"/>
       <c r="B100" s="33"/>
       <c r="C100" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>108</v>
@@ -6354,23 +6390,23 @@
       <c r="A101" s="13"/>
       <c r="B101" s="33"/>
       <c r="C101" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>108</v>
@@ -6380,7 +6416,7 @@
       <c r="A102" s="13"/>
       <c r="B102" s="33"/>
       <c r="C102" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>122</v>
@@ -6389,10 +6425,10 @@
         <v>13</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6" t="s">
@@ -6406,23 +6442,23 @@
       <c r="A103" s="13"/>
       <c r="B103" s="33"/>
       <c r="C103" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>108</v>
@@ -6432,23 +6468,23 @@
       <c r="A104" s="13"/>
       <c r="B104" s="33"/>
       <c r="C104" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H104" s="6"/>
       <c r="I104" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J104" s="6" t="s">
         <v>108</v>
@@ -6458,7 +6494,7 @@
       <c r="A105" s="13"/>
       <c r="B105" s="33"/>
       <c r="C105" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>122</v>
@@ -6467,10 +6503,10 @@
         <v>13</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H105" s="6"/>
       <c r="I105" s="6" t="s">
@@ -6484,23 +6520,23 @@
       <c r="A106" s="13"/>
       <c r="B106" s="33"/>
       <c r="C106" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H106" s="6"/>
       <c r="I106" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J106" s="6" t="s">
         <v>108</v>
@@ -6510,23 +6546,23 @@
       <c r="A107" s="13"/>
       <c r="B107" s="33"/>
       <c r="C107" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H107" s="6"/>
       <c r="I107" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J107" s="6" t="s">
         <v>108</v>
@@ -6536,7 +6572,7 @@
       <c r="A108" s="13"/>
       <c r="B108" s="33"/>
       <c r="C108" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>122</v>
@@ -6545,10 +6581,10 @@
         <v>13</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H108" s="6"/>
       <c r="I108" s="6" t="s">
@@ -6562,23 +6598,23 @@
       <c r="A109" s="13"/>
       <c r="B109" s="33"/>
       <c r="C109" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="6" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J109" s="6" t="s">
         <v>108</v>
@@ -6588,23 +6624,23 @@
       <c r="A110" s="13"/>
       <c r="B110" s="33"/>
       <c r="C110" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H110" s="6"/>
       <c r="I110" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J110" s="6" t="s">
         <v>108</v>
@@ -6614,7 +6650,7 @@
       <c r="A111" s="13"/>
       <c r="B111" s="33"/>
       <c r="C111" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>122</v>
@@ -6623,10 +6659,10 @@
         <v>13</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="6" t="s">
@@ -6640,23 +6676,23 @@
       <c r="A112" s="13"/>
       <c r="B112" s="33"/>
       <c r="C112" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H112" s="6"/>
       <c r="I112" s="6" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="J112" s="6" t="s">
         <v>108</v>
@@ -6666,23 +6702,23 @@
       <c r="A113" s="13"/>
       <c r="B113" s="33"/>
       <c r="C113" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H113" s="6"/>
       <c r="I113" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J113" s="6" t="s">
         <v>108</v>
@@ -6692,7 +6728,7 @@
       <c r="A114" s="13"/>
       <c r="B114" s="33"/>
       <c r="C114" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>122</v>
@@ -6701,10 +6737,10 @@
         <v>13</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="6" t="s">
@@ -6718,23 +6754,23 @@
       <c r="A115" s="13"/>
       <c r="B115" s="33"/>
       <c r="C115" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J115" s="6" t="s">
         <v>108</v>
@@ -6742,27 +6778,25 @@
     </row>
     <row r="116" spans="1:10" ht="28.35" customHeight="1">
       <c r="A116" s="13"/>
-      <c r="B116" s="33" t="s">
-        <v>385</v>
-      </c>
+      <c r="B116" s="33"/>
       <c r="C116" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H116" s="6"/>
       <c r="I116" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J116" s="6" t="s">
         <v>108</v>
@@ -6770,9 +6804,11 @@
     </row>
     <row r="117" spans="1:10" ht="28.35" customHeight="1">
       <c r="A117" s="13"/>
-      <c r="B117" s="33"/>
+      <c r="B117" s="33" t="s">
+        <v>385</v>
+      </c>
       <c r="C117" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>122</v>
@@ -6781,10 +6817,10 @@
         <v>13</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H117" s="6"/>
       <c r="I117" s="6" t="s">
@@ -6798,23 +6834,23 @@
       <c r="A118" s="13"/>
       <c r="B118" s="33"/>
       <c r="C118" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H118" s="6"/>
       <c r="I118" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J118" s="6" t="s">
         <v>108</v>
@@ -6824,23 +6860,23 @@
       <c r="A119" s="13"/>
       <c r="B119" s="33"/>
       <c r="C119" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H119" s="6"/>
       <c r="I119" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J119" s="6" t="s">
         <v>108</v>
@@ -6850,7 +6886,7 @@
       <c r="A120" s="13"/>
       <c r="B120" s="33"/>
       <c r="C120" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>122</v>
@@ -6859,10 +6895,10 @@
         <v>13</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H120" s="6"/>
       <c r="I120" s="6" t="s">
@@ -6876,23 +6912,23 @@
       <c r="A121" s="13"/>
       <c r="B121" s="33"/>
       <c r="C121" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H121" s="6"/>
       <c r="I121" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J121" s="6" t="s">
         <v>108</v>
@@ -6902,23 +6938,23 @@
       <c r="A122" s="13"/>
       <c r="B122" s="33"/>
       <c r="C122" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J122" s="6" t="s">
         <v>108</v>
@@ -6928,7 +6964,7 @@
       <c r="A123" s="13"/>
       <c r="B123" s="33"/>
       <c r="C123" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>122</v>
@@ -6937,10 +6973,10 @@
         <v>13</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H123" s="6"/>
       <c r="I123" s="6" t="s">
@@ -6954,23 +6990,23 @@
       <c r="A124" s="13"/>
       <c r="B124" s="33"/>
       <c r="C124" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H124" s="6"/>
       <c r="I124" s="6" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J124" s="6" t="s">
         <v>108</v>
@@ -6980,23 +7016,23 @@
       <c r="A125" s="13"/>
       <c r="B125" s="33"/>
       <c r="C125" s="10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J125" s="6" t="s">
         <v>108</v>
@@ -7006,7 +7042,7 @@
       <c r="A126" s="13"/>
       <c r="B126" s="33"/>
       <c r="C126" s="10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>122</v>
@@ -7015,10 +7051,10 @@
         <v>13</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="6" t="s">
@@ -7032,23 +7068,23 @@
       <c r="A127" s="13"/>
       <c r="B127" s="33"/>
       <c r="C127" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H127" s="6"/>
       <c r="I127" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J127" s="6" t="s">
         <v>108</v>
@@ -7058,23 +7094,23 @@
       <c r="A128" s="13"/>
       <c r="B128" s="33"/>
       <c r="C128" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H128" s="6"/>
       <c r="I128" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J128" s="6" t="s">
         <v>108</v>
@@ -7084,7 +7120,7 @@
       <c r="A129" s="13"/>
       <c r="B129" s="33"/>
       <c r="C129" s="10" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>122</v>
@@ -7093,10 +7129,10 @@
         <v>13</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H129" s="6"/>
       <c r="I129" s="6" t="s">
@@ -7110,23 +7146,23 @@
       <c r="A130" s="13"/>
       <c r="B130" s="33"/>
       <c r="C130" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H130" s="6"/>
       <c r="I130" s="6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="J130" s="6" t="s">
         <v>108</v>
@@ -7136,23 +7172,23 @@
       <c r="A131" s="13"/>
       <c r="B131" s="33"/>
       <c r="C131" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H131" s="6"/>
       <c r="I131" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J131" s="6" t="s">
         <v>108</v>
@@ -7162,7 +7198,7 @@
       <c r="A132" s="13"/>
       <c r="B132" s="33"/>
       <c r="C132" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>122</v>
@@ -7171,10 +7207,10 @@
         <v>13</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H132" s="6"/>
       <c r="I132" s="6" t="s">
@@ -7188,23 +7224,23 @@
       <c r="A133" s="13"/>
       <c r="B133" s="33"/>
       <c r="C133" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H133" s="6"/>
       <c r="I133" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J133" s="6" t="s">
         <v>108</v>
@@ -7214,23 +7250,23 @@
       <c r="A134" s="13"/>
       <c r="B134" s="33"/>
       <c r="C134" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H134" s="6"/>
       <c r="I134" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J134" s="6" t="s">
         <v>108</v>
@@ -7240,7 +7276,7 @@
       <c r="A135" s="13"/>
       <c r="B135" s="33"/>
       <c r="C135" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>122</v>
@@ -7249,10 +7285,10 @@
         <v>13</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H135" s="6"/>
       <c r="I135" s="6" t="s">
@@ -7266,23 +7302,23 @@
       <c r="A136" s="13"/>
       <c r="B136" s="33"/>
       <c r="C136" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H136" s="6"/>
       <c r="I136" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="J136" s="6" t="s">
         <v>108</v>
@@ -7292,23 +7328,23 @@
       <c r="A137" s="13"/>
       <c r="B137" s="33"/>
       <c r="C137" s="10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J137" s="6" t="s">
         <v>108</v>
@@ -7318,7 +7354,7 @@
       <c r="A138" s="13"/>
       <c r="B138" s="33"/>
       <c r="C138" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>122</v>
@@ -7327,10 +7363,10 @@
         <v>13</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="6" t="s">
@@ -7344,23 +7380,23 @@
       <c r="A139" s="13"/>
       <c r="B139" s="33"/>
       <c r="C139" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H139" s="6"/>
       <c r="I139" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J139" s="6" t="s">
         <v>108</v>
@@ -7370,23 +7406,23 @@
       <c r="A140" s="13"/>
       <c r="B140" s="33"/>
       <c r="C140" s="10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J140" s="6" t="s">
         <v>108</v>
@@ -7396,7 +7432,7 @@
       <c r="A141" s="13"/>
       <c r="B141" s="33"/>
       <c r="C141" s="10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>122</v>
@@ -7405,10 +7441,10 @@
         <v>13</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H141" s="6"/>
       <c r="I141" s="6" t="s">
@@ -7422,23 +7458,23 @@
       <c r="A142" s="13"/>
       <c r="B142" s="33"/>
       <c r="C142" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="6" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="J142" s="6" t="s">
         <v>108</v>
@@ -7448,23 +7484,23 @@
       <c r="A143" s="13"/>
       <c r="B143" s="33"/>
       <c r="C143" s="10" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H143" s="6"/>
       <c r="I143" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J143" s="6" t="s">
         <v>108</v>
@@ -7474,7 +7510,7 @@
       <c r="A144" s="13"/>
       <c r="B144" s="33"/>
       <c r="C144" s="10" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>122</v>
@@ -7483,10 +7519,10 @@
         <v>13</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H144" s="6"/>
       <c r="I144" s="6" t="s">
@@ -7500,23 +7536,23 @@
       <c r="A145" s="13"/>
       <c r="B145" s="33"/>
       <c r="C145" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H145" s="6"/>
       <c r="I145" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J145" s="6" t="s">
         <v>108</v>
@@ -7526,23 +7562,23 @@
       <c r="A146" s="13"/>
       <c r="B146" s="33"/>
       <c r="C146" s="10" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H146" s="6"/>
       <c r="I146" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J146" s="6" t="s">
         <v>108</v>
@@ -7552,7 +7588,7 @@
       <c r="A147" s="13"/>
       <c r="B147" s="33"/>
       <c r="C147" s="10" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>122</v>
@@ -7561,10 +7597,10 @@
         <v>13</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H147" s="6"/>
       <c r="I147" s="6" t="s">
@@ -7578,23 +7614,23 @@
       <c r="A148" s="13"/>
       <c r="B148" s="33"/>
       <c r="C148" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H148" s="6"/>
       <c r="I148" s="6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="J148" s="6" t="s">
         <v>108</v>
@@ -7604,23 +7640,23 @@
       <c r="A149" s="13"/>
       <c r="B149" s="33"/>
       <c r="C149" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H149" s="6"/>
       <c r="I149" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J149" s="6" t="s">
         <v>108</v>
@@ -7630,7 +7666,7 @@
       <c r="A150" s="13"/>
       <c r="B150" s="33"/>
       <c r="C150" s="10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>122</v>
@@ -7639,10 +7675,10 @@
         <v>13</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H150" s="6"/>
       <c r="I150" s="6" t="s">
@@ -7656,23 +7692,23 @@
       <c r="A151" s="13"/>
       <c r="B151" s="33"/>
       <c r="C151" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H151" s="6"/>
       <c r="I151" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J151" s="6" t="s">
         <v>108</v>
@@ -7682,23 +7718,23 @@
       <c r="A152" s="13"/>
       <c r="B152" s="33"/>
       <c r="C152" s="10" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H152" s="6"/>
       <c r="I152" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J152" s="6" t="s">
         <v>108</v>
@@ -7708,7 +7744,7 @@
       <c r="A153" s="13"/>
       <c r="B153" s="33"/>
       <c r="C153" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>122</v>
@@ -7717,10 +7753,10 @@
         <v>13</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H153" s="6"/>
       <c r="I153" s="6" t="s">
@@ -7734,23 +7770,23 @@
       <c r="A154" s="13"/>
       <c r="B154" s="33"/>
       <c r="C154" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H154" s="6"/>
       <c r="I154" s="6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="J154" s="6" t="s">
         <v>108</v>
@@ -7760,23 +7796,23 @@
       <c r="A155" s="13"/>
       <c r="B155" s="33"/>
       <c r="C155" s="10" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H155" s="6"/>
       <c r="I155" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J155" s="6" t="s">
         <v>108</v>
@@ -7786,7 +7822,7 @@
       <c r="A156" s="13"/>
       <c r="B156" s="33"/>
       <c r="C156" s="10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>122</v>
@@ -7795,10 +7831,10 @@
         <v>13</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H156" s="6"/>
       <c r="I156" s="6" t="s">
@@ -7812,23 +7848,23 @@
       <c r="A157" s="13"/>
       <c r="B157" s="33"/>
       <c r="C157" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H157" s="6"/>
       <c r="I157" s="6" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="J157" s="6" t="s">
         <v>108</v>
@@ -7838,23 +7874,23 @@
       <c r="A158" s="13"/>
       <c r="B158" s="33"/>
       <c r="C158" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H158" s="6"/>
       <c r="I158" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J158" s="6" t="s">
         <v>108</v>
@@ -7864,7 +7900,7 @@
       <c r="A159" s="13"/>
       <c r="B159" s="33"/>
       <c r="C159" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>122</v>
@@ -7873,10 +7909,10 @@
         <v>13</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H159" s="6"/>
       <c r="I159" s="6" t="s">
@@ -7890,23 +7926,23 @@
       <c r="A160" s="13"/>
       <c r="B160" s="33"/>
       <c r="C160" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H160" s="6"/>
       <c r="I160" s="6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="J160" s="6" t="s">
         <v>108</v>
@@ -7916,23 +7952,23 @@
       <c r="A161" s="13"/>
       <c r="B161" s="33"/>
       <c r="C161" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H161" s="6"/>
       <c r="I161" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J161" s="6" t="s">
         <v>108</v>
@@ -7942,7 +7978,7 @@
       <c r="A162" s="13"/>
       <c r="B162" s="33"/>
       <c r="C162" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>122</v>
@@ -7951,10 +7987,10 @@
         <v>13</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H162" s="6"/>
       <c r="I162" s="6" t="s">
@@ -7968,23 +8004,23 @@
       <c r="A163" s="13"/>
       <c r="B163" s="33"/>
       <c r="C163" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H163" s="6"/>
       <c r="I163" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="J163" s="6" t="s">
         <v>108</v>
@@ -7994,23 +8030,23 @@
       <c r="A164" s="13"/>
       <c r="B164" s="33"/>
       <c r="C164" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H164" s="6"/>
       <c r="I164" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J164" s="6" t="s">
         <v>108</v>
@@ -8020,7 +8056,7 @@
       <c r="A165" s="13"/>
       <c r="B165" s="33"/>
       <c r="C165" s="10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>122</v>
@@ -8029,10 +8065,10 @@
         <v>13</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H165" s="6"/>
       <c r="I165" s="6" t="s">
@@ -8046,23 +8082,23 @@
       <c r="A166" s="13"/>
       <c r="B166" s="33"/>
       <c r="C166" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H166" s="6"/>
       <c r="I166" s="6" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="J166" s="6" t="s">
         <v>108</v>
@@ -8072,23 +8108,23 @@
       <c r="A167" s="13"/>
       <c r="B167" s="33"/>
       <c r="C167" s="10" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H167" s="6"/>
       <c r="I167" s="6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J167" s="6" t="s">
         <v>108</v>
@@ -8098,7 +8134,7 @@
       <c r="A168" s="13"/>
       <c r="B168" s="33"/>
       <c r="C168" s="10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>122</v>
@@ -8107,10 +8143,10 @@
         <v>13</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H168" s="6"/>
       <c r="I168" s="6" t="s">
@@ -8124,23 +8160,23 @@
       <c r="A169" s="13"/>
       <c r="B169" s="33"/>
       <c r="C169" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H169" s="6"/>
       <c r="I169" s="6" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="J169" s="6" t="s">
         <v>108</v>
@@ -8150,23 +8186,23 @@
       <c r="A170" s="13"/>
       <c r="B170" s="33"/>
       <c r="C170" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H170" s="6"/>
       <c r="I170" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J170" s="6" t="s">
         <v>108</v>
@@ -8176,7 +8212,7 @@
       <c r="A171" s="13"/>
       <c r="B171" s="33"/>
       <c r="C171" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>122</v>
@@ -8185,10 +8221,10 @@
         <v>13</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H171" s="6"/>
       <c r="I171" s="6" t="s">
@@ -8202,283 +8238,287 @@
       <c r="A172" s="13"/>
       <c r="B172" s="33"/>
       <c r="C172" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H172" s="6"/>
       <c r="I172" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="28.35" customHeight="1">
+      <c r="A173" s="13"/>
+      <c r="B173" s="33"/>
+      <c r="C173" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="J172" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A173" s="34" t="s">
+      <c r="J173" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="28.35" customHeight="1">
+      <c r="A174" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="B173" s="35" t="s">
+      <c r="B174" s="46" t="s">
         <v>539</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C174" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="D173" s="6"/>
-      <c r="E173" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="H173" s="6"/>
-      <c r="I173" s="6"/>
-      <c r="J173" s="6"/>
-    </row>
-    <row r="174" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A174" s="34"/>
-      <c r="B174" s="35"/>
-      <c r="C174" s="6" t="s">
-        <v>543</v>
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="15" t="s">
         <v>541</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
     </row>
     <row r="175" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A175" s="34"/>
-      <c r="B175" s="27" t="s">
-        <v>545</v>
-      </c>
+      <c r="A175" s="45"/>
+      <c r="B175" s="46"/>
       <c r="C175" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D175" s="6"/>
       <c r="E175" s="15" t="s">
         <v>541</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
     </row>
     <row r="176" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A176" s="34"/>
-      <c r="B176" s="27"/>
+      <c r="A176" s="45"/>
+      <c r="B176" s="47" t="s">
+        <v>545</v>
+      </c>
       <c r="C176" s="6" t="s">
-        <v>27</v>
+        <v>546</v>
       </c>
       <c r="D176" s="6"/>
       <c r="E176" s="15" t="s">
         <v>541</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>29</v>
+        <v>547</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="H176" s="6" t="s">
-        <v>550</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="H176" s="6"/>
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
     </row>
     <row r="177" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A177" s="34"/>
-      <c r="B177" s="27"/>
+      <c r="A177" s="45"/>
+      <c r="B177" s="47"/>
       <c r="C177" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="15" t="s">
         <v>541</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>551</v>
+        <v>29</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
     </row>
     <row r="178" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A178" s="34"/>
-      <c r="B178" s="27"/>
+      <c r="A178" s="45"/>
+      <c r="B178" s="47"/>
       <c r="C178" s="6" t="s">
-        <v>553</v>
+        <v>26</v>
       </c>
       <c r="D178" s="6"/>
       <c r="E178" s="15" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
     </row>
     <row r="179" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A179" s="34"/>
-      <c r="B179" s="27"/>
+      <c r="A179" s="45"/>
+      <c r="B179" s="47"/>
       <c r="C179" s="6" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D179" s="6"/>
       <c r="E179" s="15" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="H179" s="6"/>
+        <v>555</v>
+      </c>
+      <c r="H179" s="6" t="s">
+        <v>556</v>
+      </c>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
     </row>
     <row r="180" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A180" s="34"/>
-      <c r="B180" s="27"/>
+      <c r="A180" s="45"/>
+      <c r="B180" s="47"/>
       <c r="C180" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="15" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
     </row>
     <row r="181" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A181" s="34"/>
-      <c r="B181" s="27"/>
+      <c r="A181" s="45"/>
+      <c r="B181" s="47"/>
       <c r="C181" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="15" t="s">
         <v>554</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="H181" s="6" t="s">
-        <v>564</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="H181" s="6"/>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
     </row>
     <row r="182" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A182" s="34"/>
-      <c r="B182" s="27" t="s">
-        <v>565</v>
-      </c>
+      <c r="A182" s="45"/>
+      <c r="B182" s="47"/>
       <c r="C182" s="6" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="15" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
     </row>
     <row r="183" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A183" s="34"/>
-      <c r="B183" s="27"/>
+      <c r="A183" s="45"/>
+      <c r="B183" s="47" t="s">
+        <v>565</v>
+      </c>
       <c r="C183" s="6" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D183" s="6"/>
       <c r="E183" s="15" t="s">
         <v>541</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
     </row>
     <row r="184" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A184" s="34"/>
-      <c r="B184" s="27"/>
+      <c r="A184" s="45"/>
+      <c r="B184" s="47"/>
       <c r="C184" s="6" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D184" s="6"/>
       <c r="E184" s="15" t="s">
         <v>541</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>573</v>
@@ -8487,434 +8527,456 @@
       <c r="J184" s="6"/>
     </row>
     <row r="185" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A185" s="34"/>
-      <c r="B185" s="27"/>
+      <c r="A185" s="45"/>
+      <c r="B185" s="47"/>
       <c r="C185" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D185" s="6"/>
       <c r="E185" s="15" t="s">
         <v>541</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
     </row>
     <row r="186" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A186" s="34"/>
-      <c r="B186" s="27"/>
+      <c r="A186" s="45"/>
+      <c r="B186" s="47"/>
       <c r="C186" s="6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D186" s="6"/>
       <c r="E186" s="15" t="s">
         <v>541</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="H186" s="6"/>
+        <v>579</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>580</v>
+      </c>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
     </row>
     <row r="187" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A187" s="34"/>
-      <c r="B187" s="27" t="s">
-        <v>584</v>
-      </c>
+      <c r="A187" s="45"/>
+      <c r="B187" s="47"/>
       <c r="C187" s="6" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D187" s="6"/>
       <c r="E187" s="15" t="s">
         <v>541</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
     </row>
     <row r="188" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A188" s="34"/>
-      <c r="B188" s="27"/>
+      <c r="A188" s="45"/>
+      <c r="B188" s="47" t="s">
+        <v>584</v>
+      </c>
       <c r="C188" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="15" t="s">
         <v>541</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="H188" s="6" t="s">
-        <v>591</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="H188" s="6"/>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
     </row>
     <row r="189" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A189" s="34"/>
-      <c r="B189" s="27" t="s">
-        <v>592</v>
-      </c>
+      <c r="A189" s="45"/>
+      <c r="B189" s="47"/>
       <c r="C189" s="6" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D189" s="6"/>
       <c r="E189" s="15" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="H189" s="6"/>
+        <v>590</v>
+      </c>
+      <c r="H189" s="6" t="s">
+        <v>591</v>
+      </c>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
     </row>
     <row r="190" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A190" s="34"/>
-      <c r="B190" s="27"/>
+      <c r="A190" s="45"/>
+      <c r="B190" s="47" t="s">
+        <v>592</v>
+      </c>
       <c r="C190" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D190" s="6"/>
       <c r="E190" s="15" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="H190" s="6" t="s">
-        <v>598</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="H190" s="6"/>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
     </row>
     <row r="191" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A191" s="34"/>
-      <c r="B191" s="27"/>
+      <c r="A191" s="45"/>
+      <c r="B191" s="47"/>
       <c r="C191" s="6" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D191" s="6"/>
       <c r="E191" s="15" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
     </row>
     <row r="192" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A192" s="34"/>
-      <c r="B192" s="27"/>
+      <c r="A192" s="45"/>
+      <c r="B192" s="47"/>
       <c r="C192" s="6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D192" s="6"/>
       <c r="E192" s="15" t="s">
         <v>554</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="H192" s="6"/>
+        <v>601</v>
+      </c>
+      <c r="H192" s="6" t="s">
+        <v>602</v>
+      </c>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
     </row>
     <row r="193" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A193" s="34"/>
-      <c r="B193" s="27"/>
+      <c r="A193" s="45"/>
+      <c r="B193" s="47"/>
       <c r="C193" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D193" s="6"/>
       <c r="E193" s="15" t="s">
         <v>554</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="H193" s="6" t="s">
-        <v>608</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="H193" s="6"/>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
     </row>
     <row r="194" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A194" s="34"/>
-      <c r="B194" s="27" t="s">
-        <v>609</v>
-      </c>
+      <c r="A194" s="45"/>
+      <c r="B194" s="47"/>
       <c r="C194" s="6" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D194" s="6"/>
       <c r="E194" s="15" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="H194" s="6"/>
+        <v>607</v>
+      </c>
+      <c r="H194" s="6" t="s">
+        <v>608</v>
+      </c>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
     </row>
     <row r="195" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A195" s="34"/>
-      <c r="B195" s="27"/>
+      <c r="A195" s="45"/>
+      <c r="B195" s="47" t="s">
+        <v>609</v>
+      </c>
       <c r="C195" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="15" t="s">
-        <v>613</v>
+        <v>541</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
     </row>
     <row r="196" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A196" s="34"/>
-      <c r="B196" s="27"/>
+      <c r="A196" s="45"/>
+      <c r="B196" s="47"/>
       <c r="C196" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D196" s="6"/>
       <c r="E196" s="15" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
     </row>
     <row r="197" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A197" s="34"/>
-      <c r="B197" s="27"/>
+      <c r="A197" s="45"/>
+      <c r="B197" s="47"/>
       <c r="C197" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D197" s="6"/>
       <c r="E197" s="15" t="s">
         <v>617</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
     </row>
     <row r="198" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A198" s="34"/>
-      <c r="B198" s="27" t="s">
-        <v>621</v>
-      </c>
+      <c r="A198" s="45"/>
+      <c r="B198" s="47"/>
       <c r="C198" s="6" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D198" s="6"/>
       <c r="E198" s="15" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
     </row>
     <row r="199" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A199" s="34"/>
-      <c r="B199" s="27"/>
+      <c r="A199" s="45"/>
+      <c r="B199" s="47" t="s">
+        <v>621</v>
+      </c>
       <c r="C199" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D199" s="6"/>
       <c r="E199" s="15" t="s">
         <v>554</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
     </row>
     <row r="200" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A200" s="34"/>
-      <c r="B200" s="27"/>
+      <c r="A200" s="45"/>
+      <c r="B200" s="47"/>
       <c r="C200" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D200" s="6"/>
       <c r="E200" s="15" t="s">
         <v>554</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
     </row>
     <row r="201" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A201" s="34"/>
-      <c r="B201" s="27"/>
+      <c r="A201" s="45"/>
+      <c r="B201" s="47"/>
       <c r="C201" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D201" s="6"/>
       <c r="E201" s="15" t="s">
         <v>554</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="H201" s="6" t="s">
-        <v>630</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="H201" s="6"/>
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
     </row>
-    <row r="203" spans="1:10" ht="28.35" customHeight="1">
-      <c r="C203" s="19"/>
+    <row r="202" spans="1:10" ht="28.35" customHeight="1">
+      <c r="A202" s="45"/>
+      <c r="B202" s="47"/>
+      <c r="C202" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D202" s="6"/>
+      <c r="E202" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="G202" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="H202" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
     </row>
     <row r="204" spans="1:10" ht="28.35" customHeight="1">
       <c r="C204" s="19"/>
     </row>
+    <row r="205" spans="1:10" ht="28.35" customHeight="1">
+      <c r="C205" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B71"/>
+    <mergeCell ref="B72:B116"/>
+    <mergeCell ref="B117:B173"/>
+    <mergeCell ref="A174:A202"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B176:B182"/>
+    <mergeCell ref="B183:B187"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="B190:B194"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A173:A201"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="B182:B186"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B189:B193"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B70"/>
-    <mergeCell ref="B71:B115"/>
-    <mergeCell ref="B116:B172"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G9 G11:G13">
     <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71:G1048576 G44:G64 G42 G1:G2 G10 G18 G7:G8 G24:G27 G37:G40 H36 G31:G32 G21:G22">
+  <conditionalFormatting sqref="G72:G1048576 G45:G65 G43 G1:G2 G10 G18 G7:G8 G24:G28 G38:G41 H37 G32:G33 G21:G22">
     <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
     <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G34">
     <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G42">
     <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
+  <conditionalFormatting sqref="G35">
     <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="G36">
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
+  <conditionalFormatting sqref="G44">
     <cfRule type="duplicateValues" dxfId="6" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="G29">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G30">
+  <conditionalFormatting sqref="G30:G31">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65:G67">
+  <conditionalFormatting sqref="G66:G68">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G68:G70">
+  <conditionalFormatting sqref="G69:G71">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G17">
@@ -8933,7 +8995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
@@ -10115,5 +10177,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Base-宽表/用户标签整理/用户画像标签系统V2.0版本-数据统计.xlsx
+++ b/Base-宽表/用户标签整理/用户画像标签系统V2.0版本-数据统计.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="2" r:id="rId1"/>
     <sheet name="指标体系" sheetId="1" r:id="rId2"/>
     <sheet name="t_v_real_customer" sheetId="3" r:id="rId3"/>
     <sheet name="t_v_real_order" sheetId="4" r:id="rId4"/>
+    <sheet name="基础表维护" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="682">
   <si>
     <t>分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2809,6 +2810,22 @@
   </si>
   <si>
     <t>线上员工online，门店国安侠store_staff。非员工：N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_customer_associator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按日分区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社员用户及所属城市表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3156,16 +3173,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3186,50 +3239,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3678,7 +3695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3881,7 +3898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J205"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -3935,7 +3952,7 @@
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3959,7 +3976,7 @@
     </row>
     <row r="3" spans="1:10" ht="28.35" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="33"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
@@ -3981,7 +3998,7 @@
     </row>
     <row r="4" spans="1:10" ht="28.35" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="33"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="9" t="s">
         <v>20</v>
       </c>
@@ -3992,10 +4009,10 @@
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="49" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="6"/>
@@ -4005,7 +4022,7 @@
     </row>
     <row r="5" spans="1:10" ht="28.35" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="33"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
@@ -4016,8 +4033,8 @@
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="38"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
         <v>16</v>
@@ -4025,7 +4042,7 @@
     </row>
     <row r="6" spans="1:10" ht="28.35" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="33"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
@@ -4036,8 +4053,8 @@
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="39"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
         <v>16</v>
@@ -4045,7 +4062,7 @@
     </row>
     <row r="7" spans="1:10" ht="28.35" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="32"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
@@ -4069,7 +4086,7 @@
     </row>
     <row r="8" spans="1:10" ht="28.35" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="33"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
@@ -4091,7 +4108,7 @@
     </row>
     <row r="9" spans="1:10" ht="28.35" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="36" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -4115,7 +4132,7 @@
     </row>
     <row r="10" spans="1:10" ht="28.35" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="40"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="6" t="s">
         <v>38</v>
       </c>
@@ -4137,7 +4154,7 @@
     </row>
     <row r="11" spans="1:10" ht="28.35" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="40"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="6" t="s">
         <v>41</v>
       </c>
@@ -4159,7 +4176,7 @@
     </row>
     <row r="12" spans="1:10" ht="28.35" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
@@ -4183,7 +4200,7 @@
     </row>
     <row r="13" spans="1:10" ht="28.35" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="40"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
@@ -4207,7 +4224,7 @@
     </row>
     <row r="14" spans="1:10" ht="28.35" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="40"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="6" t="s">
         <v>52</v>
       </c>
@@ -4231,7 +4248,7 @@
     </row>
     <row r="15" spans="1:10" ht="28.35" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="31"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="10" t="s">
         <v>56</v>
       </c>
@@ -4255,7 +4272,7 @@
     </row>
     <row r="16" spans="1:10" ht="28.35" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="45" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -4279,7 +4296,7 @@
     </row>
     <row r="17" spans="1:10" ht="28.35" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="32"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="6" t="s">
         <v>65</v>
       </c>
@@ -4301,7 +4318,7 @@
     </row>
     <row r="18" spans="1:10" ht="28.35" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="41" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -4325,7 +4342,7 @@
     </row>
     <row r="19" spans="1:10" ht="28.35" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="33"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="10" t="s">
         <v>72</v>
       </c>
@@ -4347,7 +4364,7 @@
     </row>
     <row r="20" spans="1:10" ht="28.35" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="33"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="10" t="s">
         <v>76</v>
       </c>
@@ -4369,7 +4386,7 @@
     </row>
     <row r="21" spans="1:10" ht="28.35" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="33"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="10" t="s">
         <v>78</v>
       </c>
@@ -4391,7 +4408,7 @@
     </row>
     <row r="22" spans="1:10" ht="28.35" customHeight="1">
       <c r="A22" s="8"/>
-      <c r="B22" s="33"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="10" t="s">
         <v>81</v>
       </c>
@@ -4411,7 +4428,7 @@
     </row>
     <row r="23" spans="1:10" ht="28.35" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="41"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="7" t="s">
         <v>84</v>
       </c>
@@ -4433,7 +4450,7 @@
     </row>
     <row r="24" spans="1:10" ht="28.35" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="33"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="10" t="s">
         <v>86</v>
       </c>
@@ -4453,31 +4470,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="54" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51" t="s">
+    <row r="25" spans="1:10" s="35" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32" t="s">
         <v>674</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="34" t="s">
         <v>677</v>
       </c>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" ht="28.35" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="41" t="s">
         <v>89</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -4501,7 +4518,7 @@
     </row>
     <row r="27" spans="1:10" ht="28.35" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="33"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="10" t="s">
         <v>94</v>
       </c>
@@ -4523,7 +4540,7 @@
     </row>
     <row r="28" spans="1:10" ht="28.35" customHeight="1">
       <c r="A28" s="8"/>
-      <c r="B28" s="33"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="10" t="s">
         <v>97</v>
       </c>
@@ -4545,7 +4562,7 @@
     </row>
     <row r="29" spans="1:10" ht="28.35" customHeight="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="33"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="10" t="s">
         <v>100</v>
       </c>
@@ -4569,7 +4586,7 @@
     </row>
     <row r="30" spans="1:10" ht="28.35" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="41"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="7" t="s">
         <v>104</v>
       </c>
@@ -4591,7 +4608,7 @@
     </row>
     <row r="31" spans="1:10" ht="28.35" customHeight="1">
       <c r="A31" s="8"/>
-      <c r="B31" s="41"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="7" t="s">
         <v>109</v>
       </c>
@@ -4613,7 +4630,7 @@
     </row>
     <row r="32" spans="1:10" ht="28.35" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="36" t="s">
         <v>113</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -4637,7 +4654,7 @@
     </row>
     <row r="33" spans="1:10" ht="28.35" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="40"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="6" t="s">
         <v>118</v>
       </c>
@@ -4660,7 +4677,7 @@
     </row>
     <row r="34" spans="1:10" ht="28.35" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="40"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="7" t="s">
         <v>121</v>
       </c>
@@ -4684,7 +4701,7 @@
     </row>
     <row r="35" spans="1:10" ht="28.35" customHeight="1">
       <c r="A35" s="8"/>
-      <c r="B35" s="42"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="10" t="s">
         <v>125</v>
       </c>
@@ -4710,7 +4727,7 @@
     </row>
     <row r="36" spans="1:10" ht="28.35" customHeight="1">
       <c r="A36" s="8"/>
-      <c r="B36" s="40"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="6" t="s">
         <v>129</v>
       </c>
@@ -4736,7 +4753,7 @@
     </row>
     <row r="37" spans="1:10" ht="28.35" customHeight="1">
       <c r="A37" s="8"/>
-      <c r="B37" s="42"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="10" t="s">
         <v>133</v>
       </c>
@@ -4764,7 +4781,7 @@
     </row>
     <row r="38" spans="1:10" ht="28.35" customHeight="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="45" t="s">
         <v>137</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -4790,7 +4807,7 @@
     </row>
     <row r="39" spans="1:10" ht="28.35" customHeight="1">
       <c r="A39" s="13"/>
-      <c r="B39" s="32"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="7" t="s">
         <v>143</v>
       </c>
@@ -4814,7 +4831,7 @@
     </row>
     <row r="40" spans="1:10" ht="28.35" customHeight="1">
       <c r="A40" s="13"/>
-      <c r="B40" s="32"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="7" t="s">
         <v>145</v>
       </c>
@@ -4838,7 +4855,7 @@
     </row>
     <row r="41" spans="1:10" ht="28.35" customHeight="1">
       <c r="A41" s="13"/>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="45" t="s">
         <v>147</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -4864,7 +4881,7 @@
     </row>
     <row r="42" spans="1:10" ht="28.35" customHeight="1">
       <c r="A42" s="13"/>
-      <c r="B42" s="32"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="7" t="s">
         <v>151</v>
       </c>
@@ -4888,7 +4905,7 @@
     </row>
     <row r="43" spans="1:10" ht="28.35" customHeight="1">
       <c r="A43" s="13"/>
-      <c r="B43" s="32"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="7" t="s">
         <v>154</v>
       </c>
@@ -4912,7 +4929,7 @@
     </row>
     <row r="44" spans="1:10" ht="28.35" customHeight="1">
       <c r="A44" s="13"/>
-      <c r="B44" s="32"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="7" t="s">
         <v>156</v>
       </c>
@@ -4962,7 +4979,7 @@
     </row>
     <row r="46" spans="1:10" ht="28.35" customHeight="1">
       <c r="A46" s="13"/>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="53" t="s">
         <v>164</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -4990,7 +5007,7 @@
     </row>
     <row r="47" spans="1:10" ht="28.35" customHeight="1">
       <c r="A47" s="13"/>
-      <c r="B47" s="44"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="10" t="s">
         <v>169</v>
       </c>
@@ -5016,7 +5033,7 @@
     </row>
     <row r="48" spans="1:10" ht="28.35" customHeight="1">
       <c r="A48" s="13"/>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="36" t="s">
         <v>173</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -5044,7 +5061,7 @@
     </row>
     <row r="49" spans="1:10" ht="28.35" customHeight="1">
       <c r="A49" s="13"/>
-      <c r="B49" s="31"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="6" t="s">
         <v>179</v>
       </c>
@@ -5070,7 +5087,7 @@
     </row>
     <row r="50" spans="1:10" ht="28.35" customHeight="1">
       <c r="A50" s="13"/>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="36" t="s">
         <v>184</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -5096,7 +5113,7 @@
     </row>
     <row r="51" spans="1:10" ht="28.35" customHeight="1">
       <c r="A51" s="13"/>
-      <c r="B51" s="40"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="6" t="s">
         <v>187</v>
       </c>
@@ -5120,7 +5137,7 @@
     </row>
     <row r="52" spans="1:10" ht="28.35" customHeight="1">
       <c r="A52" s="13"/>
-      <c r="B52" s="42"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="10" t="s">
         <v>190</v>
       </c>
@@ -5146,7 +5163,7 @@
     </row>
     <row r="53" spans="1:10" ht="28.35" customHeight="1">
       <c r="A53" s="13"/>
-      <c r="B53" s="44"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="10" t="s">
         <v>194</v>
       </c>
@@ -5226,7 +5243,7 @@
     </row>
     <row r="56" spans="1:10" ht="28.35" customHeight="1">
       <c r="A56" s="13"/>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="36" t="s">
         <v>206</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -5256,7 +5273,7 @@
     </row>
     <row r="57" spans="1:10" ht="28.35" customHeight="1">
       <c r="A57" s="13"/>
-      <c r="B57" s="31"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="6" t="s">
         <v>213</v>
       </c>
@@ -5284,7 +5301,7 @@
     </row>
     <row r="58" spans="1:10" ht="28.35" customHeight="1">
       <c r="A58" s="13"/>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="36" t="s">
         <v>218</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -5310,7 +5327,7 @@
     </row>
     <row r="59" spans="1:10" ht="28.35" customHeight="1">
       <c r="A59" s="13"/>
-      <c r="B59" s="40"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="6" t="s">
         <v>222</v>
       </c>
@@ -5334,7 +5351,7 @@
     </row>
     <row r="60" spans="1:10" ht="28.35" customHeight="1">
       <c r="A60" s="13"/>
-      <c r="B60" s="40"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="6" t="s">
         <v>225</v>
       </c>
@@ -5358,7 +5375,7 @@
     </row>
     <row r="61" spans="1:10" ht="28.35" customHeight="1">
       <c r="A61" s="13"/>
-      <c r="B61" s="40"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="6" t="s">
         <v>228</v>
       </c>
@@ -5382,7 +5399,7 @@
     </row>
     <row r="62" spans="1:10" ht="28.35" customHeight="1">
       <c r="A62" s="13"/>
-      <c r="B62" s="42"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="10" t="s">
         <v>232</v>
       </c>
@@ -5406,7 +5423,7 @@
     </row>
     <row r="63" spans="1:10" ht="28.35" customHeight="1">
       <c r="A63" s="13"/>
-      <c r="B63" s="42"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="10" t="s">
         <v>236</v>
       </c>
@@ -5430,7 +5447,7 @@
     </row>
     <row r="64" spans="1:10" ht="28.35" customHeight="1">
       <c r="A64" s="13"/>
-      <c r="B64" s="42"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="10" t="s">
         <v>239</v>
       </c>
@@ -5456,7 +5473,7 @@
     </row>
     <row r="65" spans="1:10" ht="28.35" customHeight="1">
       <c r="A65" s="13"/>
-      <c r="B65" s="42"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="10" t="s">
         <v>243</v>
       </c>
@@ -5482,7 +5499,7 @@
     </row>
     <row r="66" spans="1:10" ht="28.35" customHeight="1">
       <c r="A66" s="13"/>
-      <c r="B66" s="42"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="10" t="s">
         <v>246</v>
       </c>
@@ -5508,7 +5525,7 @@
     </row>
     <row r="67" spans="1:10" ht="28.35" customHeight="1">
       <c r="A67" s="13"/>
-      <c r="B67" s="42"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="10" t="s">
         <v>250</v>
       </c>
@@ -5534,7 +5551,7 @@
     </row>
     <row r="68" spans="1:10" ht="28.35" customHeight="1">
       <c r="A68" s="13"/>
-      <c r="B68" s="42"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="10" t="s">
         <v>253</v>
       </c>
@@ -5560,7 +5577,7 @@
     </row>
     <row r="69" spans="1:10" ht="28.35" customHeight="1">
       <c r="A69" s="13"/>
-      <c r="B69" s="42"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="10" t="s">
         <v>255</v>
       </c>
@@ -5586,7 +5603,7 @@
     </row>
     <row r="70" spans="1:10" ht="28.35" customHeight="1">
       <c r="A70" s="13"/>
-      <c r="B70" s="42"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="10" t="s">
         <v>258</v>
       </c>
@@ -5612,7 +5629,7 @@
     </row>
     <row r="71" spans="1:10" ht="28.35" customHeight="1">
       <c r="A71" s="13"/>
-      <c r="B71" s="44"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="10" t="s">
         <v>260</v>
       </c>
@@ -5638,7 +5655,7 @@
     </row>
     <row r="72" spans="1:10" ht="28.35" customHeight="1">
       <c r="A72" s="13"/>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="41" t="s">
         <v>262</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -5666,7 +5683,7 @@
     </row>
     <row r="73" spans="1:10" ht="28.35" customHeight="1">
       <c r="A73" s="13"/>
-      <c r="B73" s="33"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="10" t="s">
         <v>267</v>
       </c>
@@ -5692,7 +5709,7 @@
     </row>
     <row r="74" spans="1:10" ht="28.35" customHeight="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="33"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="10" t="s">
         <v>271</v>
       </c>
@@ -5718,7 +5735,7 @@
     </row>
     <row r="75" spans="1:10" ht="28.35" customHeight="1">
       <c r="A75" s="13"/>
-      <c r="B75" s="33"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="10" t="s">
         <v>274</v>
       </c>
@@ -5744,7 +5761,7 @@
     </row>
     <row r="76" spans="1:10" ht="28.35" customHeight="1">
       <c r="A76" s="13"/>
-      <c r="B76" s="33"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="10" t="s">
         <v>277</v>
       </c>
@@ -5770,7 +5787,7 @@
     </row>
     <row r="77" spans="1:10" ht="28.35" customHeight="1">
       <c r="A77" s="13"/>
-      <c r="B77" s="33"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="10" t="s">
         <v>279</v>
       </c>
@@ -5796,7 +5813,7 @@
     </row>
     <row r="78" spans="1:10" ht="28.35" customHeight="1">
       <c r="A78" s="13"/>
-      <c r="B78" s="33"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="10" t="s">
         <v>282</v>
       </c>
@@ -5822,7 +5839,7 @@
     </row>
     <row r="79" spans="1:10" ht="28.35" customHeight="1">
       <c r="A79" s="13"/>
-      <c r="B79" s="33"/>
+      <c r="B79" s="41"/>
       <c r="C79" s="10" t="s">
         <v>285</v>
       </c>
@@ -5848,7 +5865,7 @@
     </row>
     <row r="80" spans="1:10" ht="28.35" customHeight="1">
       <c r="A80" s="13"/>
-      <c r="B80" s="33"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="10" t="s">
         <v>288</v>
       </c>
@@ -5874,7 +5891,7 @@
     </row>
     <row r="81" spans="1:10" ht="28.35" customHeight="1">
       <c r="A81" s="13"/>
-      <c r="B81" s="33"/>
+      <c r="B81" s="41"/>
       <c r="C81" s="10" t="s">
         <v>291</v>
       </c>
@@ -5900,7 +5917,7 @@
     </row>
     <row r="82" spans="1:10" ht="28.35" customHeight="1">
       <c r="A82" s="13"/>
-      <c r="B82" s="33"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="10" t="s">
         <v>294</v>
       </c>
@@ -5926,7 +5943,7 @@
     </row>
     <row r="83" spans="1:10" ht="28.35" customHeight="1">
       <c r="A83" s="13"/>
-      <c r="B83" s="33"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="10" t="s">
         <v>296</v>
       </c>
@@ -5952,7 +5969,7 @@
     </row>
     <row r="84" spans="1:10" ht="28.35" customHeight="1">
       <c r="A84" s="13"/>
-      <c r="B84" s="33"/>
+      <c r="B84" s="41"/>
       <c r="C84" s="10" t="s">
         <v>299</v>
       </c>
@@ -5976,7 +5993,7 @@
     </row>
     <row r="85" spans="1:10" ht="28.35" customHeight="1">
       <c r="A85" s="13"/>
-      <c r="B85" s="33"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="10" t="s">
         <v>301</v>
       </c>
@@ -6000,7 +6017,7 @@
     </row>
     <row r="86" spans="1:10" ht="28.35" customHeight="1">
       <c r="A86" s="13"/>
-      <c r="B86" s="33"/>
+      <c r="B86" s="41"/>
       <c r="C86" s="10" t="s">
         <v>303</v>
       </c>
@@ -6024,7 +6041,7 @@
     </row>
     <row r="87" spans="1:10" ht="28.35" customHeight="1">
       <c r="A87" s="13"/>
-      <c r="B87" s="33"/>
+      <c r="B87" s="41"/>
       <c r="C87" s="10" t="s">
         <v>305</v>
       </c>
@@ -6050,7 +6067,7 @@
     </row>
     <row r="88" spans="1:10" ht="28.35" customHeight="1">
       <c r="A88" s="13"/>
-      <c r="B88" s="33"/>
+      <c r="B88" s="41"/>
       <c r="C88" s="10" t="s">
         <v>308</v>
       </c>
@@ -6076,7 +6093,7 @@
     </row>
     <row r="89" spans="1:10" ht="28.35" customHeight="1">
       <c r="A89" s="13"/>
-      <c r="B89" s="33"/>
+      <c r="B89" s="41"/>
       <c r="C89" s="10" t="s">
         <v>310</v>
       </c>
@@ -6102,7 +6119,7 @@
     </row>
     <row r="90" spans="1:10" ht="28.35" customHeight="1">
       <c r="A90" s="13"/>
-      <c r="B90" s="33"/>
+      <c r="B90" s="41"/>
       <c r="C90" s="10" t="s">
         <v>313</v>
       </c>
@@ -6128,7 +6145,7 @@
     </row>
     <row r="91" spans="1:10" ht="28.35" customHeight="1">
       <c r="A91" s="13"/>
-      <c r="B91" s="33"/>
+      <c r="B91" s="41"/>
       <c r="C91" s="10" t="s">
         <v>316</v>
       </c>
@@ -6154,7 +6171,7 @@
     </row>
     <row r="92" spans="1:10" ht="28.35" customHeight="1">
       <c r="A92" s="13"/>
-      <c r="B92" s="33"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="10" t="s">
         <v>318</v>
       </c>
@@ -6180,7 +6197,7 @@
     </row>
     <row r="93" spans="1:10" ht="28.35" customHeight="1">
       <c r="A93" s="13"/>
-      <c r="B93" s="33"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="10" t="s">
         <v>321</v>
       </c>
@@ -6206,7 +6223,7 @@
     </row>
     <row r="94" spans="1:10" ht="28.35" customHeight="1">
       <c r="A94" s="13"/>
-      <c r="B94" s="33"/>
+      <c r="B94" s="41"/>
       <c r="C94" s="10" t="s">
         <v>324</v>
       </c>
@@ -6232,7 +6249,7 @@
     </row>
     <row r="95" spans="1:10" ht="28.35" customHeight="1">
       <c r="A95" s="13"/>
-      <c r="B95" s="33"/>
+      <c r="B95" s="41"/>
       <c r="C95" s="10" t="s">
         <v>326</v>
       </c>
@@ -6258,7 +6275,7 @@
     </row>
     <row r="96" spans="1:10" ht="28.35" customHeight="1">
       <c r="A96" s="13"/>
-      <c r="B96" s="33"/>
+      <c r="B96" s="41"/>
       <c r="C96" s="10" t="s">
         <v>329</v>
       </c>
@@ -6284,7 +6301,7 @@
     </row>
     <row r="97" spans="1:10" ht="28.35" customHeight="1">
       <c r="A97" s="13"/>
-      <c r="B97" s="33"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="10" t="s">
         <v>332</v>
       </c>
@@ -6310,7 +6327,7 @@
     </row>
     <row r="98" spans="1:10" ht="28.35" customHeight="1">
       <c r="A98" s="13"/>
-      <c r="B98" s="33"/>
+      <c r="B98" s="41"/>
       <c r="C98" s="10" t="s">
         <v>334</v>
       </c>
@@ -6336,7 +6353,7 @@
     </row>
     <row r="99" spans="1:10" ht="28.35" customHeight="1">
       <c r="A99" s="13"/>
-      <c r="B99" s="33"/>
+      <c r="B99" s="41"/>
       <c r="C99" s="10" t="s">
         <v>337</v>
       </c>
@@ -6362,7 +6379,7 @@
     </row>
     <row r="100" spans="1:10" ht="28.35" customHeight="1">
       <c r="A100" s="13"/>
-      <c r="B100" s="33"/>
+      <c r="B100" s="41"/>
       <c r="C100" s="10" t="s">
         <v>340</v>
       </c>
@@ -6388,7 +6405,7 @@
     </row>
     <row r="101" spans="1:10" ht="28.35" customHeight="1">
       <c r="A101" s="13"/>
-      <c r="B101" s="33"/>
+      <c r="B101" s="41"/>
       <c r="C101" s="10" t="s">
         <v>342</v>
       </c>
@@ -6414,7 +6431,7 @@
     </row>
     <row r="102" spans="1:10" ht="28.35" customHeight="1">
       <c r="A102" s="13"/>
-      <c r="B102" s="33"/>
+      <c r="B102" s="41"/>
       <c r="C102" s="10" t="s">
         <v>345</v>
       </c>
@@ -6440,7 +6457,7 @@
     </row>
     <row r="103" spans="1:10" ht="28.35" customHeight="1">
       <c r="A103" s="13"/>
-      <c r="B103" s="33"/>
+      <c r="B103" s="41"/>
       <c r="C103" s="10" t="s">
         <v>348</v>
       </c>
@@ -6466,7 +6483,7 @@
     </row>
     <row r="104" spans="1:10" ht="28.35" customHeight="1">
       <c r="A104" s="13"/>
-      <c r="B104" s="33"/>
+      <c r="B104" s="41"/>
       <c r="C104" s="10" t="s">
         <v>350</v>
       </c>
@@ -6492,7 +6509,7 @@
     </row>
     <row r="105" spans="1:10" ht="28.35" customHeight="1">
       <c r="A105" s="13"/>
-      <c r="B105" s="33"/>
+      <c r="B105" s="41"/>
       <c r="C105" s="10" t="s">
         <v>353</v>
       </c>
@@ -6518,7 +6535,7 @@
     </row>
     <row r="106" spans="1:10" ht="28.35" customHeight="1">
       <c r="A106" s="13"/>
-      <c r="B106" s="33"/>
+      <c r="B106" s="41"/>
       <c r="C106" s="10" t="s">
         <v>356</v>
       </c>
@@ -6544,7 +6561,7 @@
     </row>
     <row r="107" spans="1:10" ht="28.35" customHeight="1">
       <c r="A107" s="13"/>
-      <c r="B107" s="33"/>
+      <c r="B107" s="41"/>
       <c r="C107" s="10" t="s">
         <v>358</v>
       </c>
@@ -6570,7 +6587,7 @@
     </row>
     <row r="108" spans="1:10" ht="28.35" customHeight="1">
       <c r="A108" s="13"/>
-      <c r="B108" s="33"/>
+      <c r="B108" s="41"/>
       <c r="C108" s="10" t="s">
         <v>361</v>
       </c>
@@ -6596,7 +6613,7 @@
     </row>
     <row r="109" spans="1:10" ht="28.35" customHeight="1">
       <c r="A109" s="13"/>
-      <c r="B109" s="33"/>
+      <c r="B109" s="41"/>
       <c r="C109" s="10" t="s">
         <v>364</v>
       </c>
@@ -6622,7 +6639,7 @@
     </row>
     <row r="110" spans="1:10" ht="28.35" customHeight="1">
       <c r="A110" s="13"/>
-      <c r="B110" s="33"/>
+      <c r="B110" s="41"/>
       <c r="C110" s="10" t="s">
         <v>366</v>
       </c>
@@ -6648,7 +6665,7 @@
     </row>
     <row r="111" spans="1:10" ht="28.35" customHeight="1">
       <c r="A111" s="13"/>
-      <c r="B111" s="33"/>
+      <c r="B111" s="41"/>
       <c r="C111" s="10" t="s">
         <v>369</v>
       </c>
@@ -6674,7 +6691,7 @@
     </row>
     <row r="112" spans="1:10" ht="28.35" customHeight="1">
       <c r="A112" s="13"/>
-      <c r="B112" s="33"/>
+      <c r="B112" s="41"/>
       <c r="C112" s="10" t="s">
         <v>372</v>
       </c>
@@ -6700,7 +6717,7 @@
     </row>
     <row r="113" spans="1:10" ht="28.35" customHeight="1">
       <c r="A113" s="13"/>
-      <c r="B113" s="33"/>
+      <c r="B113" s="41"/>
       <c r="C113" s="10" t="s">
         <v>374</v>
       </c>
@@ -6726,7 +6743,7 @@
     </row>
     <row r="114" spans="1:10" ht="28.35" customHeight="1">
       <c r="A114" s="13"/>
-      <c r="B114" s="33"/>
+      <c r="B114" s="41"/>
       <c r="C114" s="10" t="s">
         <v>377</v>
       </c>
@@ -6752,7 +6769,7 @@
     </row>
     <row r="115" spans="1:10" ht="28.35" customHeight="1">
       <c r="A115" s="13"/>
-      <c r="B115" s="33"/>
+      <c r="B115" s="41"/>
       <c r="C115" s="10" t="s">
         <v>380</v>
       </c>
@@ -6778,7 +6795,7 @@
     </row>
     <row r="116" spans="1:10" ht="28.35" customHeight="1">
       <c r="A116" s="13"/>
-      <c r="B116" s="33"/>
+      <c r="B116" s="41"/>
       <c r="C116" s="10" t="s">
         <v>382</v>
       </c>
@@ -6804,7 +6821,7 @@
     </row>
     <row r="117" spans="1:10" ht="28.35" customHeight="1">
       <c r="A117" s="13"/>
-      <c r="B117" s="33" t="s">
+      <c r="B117" s="41" t="s">
         <v>385</v>
       </c>
       <c r="C117" s="10" t="s">
@@ -6832,7 +6849,7 @@
     </row>
     <row r="118" spans="1:10" ht="28.35" customHeight="1">
       <c r="A118" s="13"/>
-      <c r="B118" s="33"/>
+      <c r="B118" s="41"/>
       <c r="C118" s="10" t="s">
         <v>389</v>
       </c>
@@ -6858,7 +6875,7 @@
     </row>
     <row r="119" spans="1:10" ht="28.35" customHeight="1">
       <c r="A119" s="13"/>
-      <c r="B119" s="33"/>
+      <c r="B119" s="41"/>
       <c r="C119" s="10" t="s">
         <v>391</v>
       </c>
@@ -6884,7 +6901,7 @@
     </row>
     <row r="120" spans="1:10" ht="28.35" customHeight="1">
       <c r="A120" s="13"/>
-      <c r="B120" s="33"/>
+      <c r="B120" s="41"/>
       <c r="C120" s="10" t="s">
         <v>394</v>
       </c>
@@ -6910,7 +6927,7 @@
     </row>
     <row r="121" spans="1:10" ht="28.35" customHeight="1">
       <c r="A121" s="13"/>
-      <c r="B121" s="33"/>
+      <c r="B121" s="41"/>
       <c r="C121" s="10" t="s">
         <v>397</v>
       </c>
@@ -6936,7 +6953,7 @@
     </row>
     <row r="122" spans="1:10" ht="28.35" customHeight="1">
       <c r="A122" s="13"/>
-      <c r="B122" s="33"/>
+      <c r="B122" s="41"/>
       <c r="C122" s="10" t="s">
         <v>399</v>
       </c>
@@ -6962,7 +6979,7 @@
     </row>
     <row r="123" spans="1:10" ht="28.35" customHeight="1">
       <c r="A123" s="13"/>
-      <c r="B123" s="33"/>
+      <c r="B123" s="41"/>
       <c r="C123" s="10" t="s">
         <v>402</v>
       </c>
@@ -6988,7 +7005,7 @@
     </row>
     <row r="124" spans="1:10" ht="28.35" customHeight="1">
       <c r="A124" s="13"/>
-      <c r="B124" s="33"/>
+      <c r="B124" s="41"/>
       <c r="C124" s="10" t="s">
         <v>405</v>
       </c>
@@ -7014,7 +7031,7 @@
     </row>
     <row r="125" spans="1:10" ht="28.35" customHeight="1">
       <c r="A125" s="13"/>
-      <c r="B125" s="33"/>
+      <c r="B125" s="41"/>
       <c r="C125" s="10" t="s">
         <v>407</v>
       </c>
@@ -7040,7 +7057,7 @@
     </row>
     <row r="126" spans="1:10" ht="28.35" customHeight="1">
       <c r="A126" s="13"/>
-      <c r="B126" s="33"/>
+      <c r="B126" s="41"/>
       <c r="C126" s="10" t="s">
         <v>410</v>
       </c>
@@ -7066,7 +7083,7 @@
     </row>
     <row r="127" spans="1:10" ht="28.35" customHeight="1">
       <c r="A127" s="13"/>
-      <c r="B127" s="33"/>
+      <c r="B127" s="41"/>
       <c r="C127" s="10" t="s">
         <v>413</v>
       </c>
@@ -7092,7 +7109,7 @@
     </row>
     <row r="128" spans="1:10" ht="28.35" customHeight="1">
       <c r="A128" s="13"/>
-      <c r="B128" s="33"/>
+      <c r="B128" s="41"/>
       <c r="C128" s="10" t="s">
         <v>415</v>
       </c>
@@ -7118,7 +7135,7 @@
     </row>
     <row r="129" spans="1:10" ht="28.35" customHeight="1">
       <c r="A129" s="13"/>
-      <c r="B129" s="33"/>
+      <c r="B129" s="41"/>
       <c r="C129" s="10" t="s">
         <v>418</v>
       </c>
@@ -7144,7 +7161,7 @@
     </row>
     <row r="130" spans="1:10" ht="28.35" customHeight="1">
       <c r="A130" s="13"/>
-      <c r="B130" s="33"/>
+      <c r="B130" s="41"/>
       <c r="C130" s="10" t="s">
         <v>421</v>
       </c>
@@ -7170,7 +7187,7 @@
     </row>
     <row r="131" spans="1:10" ht="28.35" customHeight="1">
       <c r="A131" s="13"/>
-      <c r="B131" s="33"/>
+      <c r="B131" s="41"/>
       <c r="C131" s="10" t="s">
         <v>423</v>
       </c>
@@ -7196,7 +7213,7 @@
     </row>
     <row r="132" spans="1:10" ht="28.35" customHeight="1">
       <c r="A132" s="13"/>
-      <c r="B132" s="33"/>
+      <c r="B132" s="41"/>
       <c r="C132" s="10" t="s">
         <v>426</v>
       </c>
@@ -7222,7 +7239,7 @@
     </row>
     <row r="133" spans="1:10" ht="28.35" customHeight="1">
       <c r="A133" s="13"/>
-      <c r="B133" s="33"/>
+      <c r="B133" s="41"/>
       <c r="C133" s="10" t="s">
         <v>429</v>
       </c>
@@ -7248,7 +7265,7 @@
     </row>
     <row r="134" spans="1:10" ht="28.35" customHeight="1">
       <c r="A134" s="13"/>
-      <c r="B134" s="33"/>
+      <c r="B134" s="41"/>
       <c r="C134" s="10" t="s">
         <v>431</v>
       </c>
@@ -7274,7 +7291,7 @@
     </row>
     <row r="135" spans="1:10" ht="28.35" customHeight="1">
       <c r="A135" s="13"/>
-      <c r="B135" s="33"/>
+      <c r="B135" s="41"/>
       <c r="C135" s="10" t="s">
         <v>434</v>
       </c>
@@ -7300,7 +7317,7 @@
     </row>
     <row r="136" spans="1:10" ht="28.35" customHeight="1">
       <c r="A136" s="13"/>
-      <c r="B136" s="33"/>
+      <c r="B136" s="41"/>
       <c r="C136" s="10" t="s">
         <v>437</v>
       </c>
@@ -7326,7 +7343,7 @@
     </row>
     <row r="137" spans="1:10" ht="28.35" customHeight="1">
       <c r="A137" s="13"/>
-      <c r="B137" s="33"/>
+      <c r="B137" s="41"/>
       <c r="C137" s="10" t="s">
         <v>439</v>
       </c>
@@ -7352,7 +7369,7 @@
     </row>
     <row r="138" spans="1:10" ht="28.35" customHeight="1">
       <c r="A138" s="13"/>
-      <c r="B138" s="33"/>
+      <c r="B138" s="41"/>
       <c r="C138" s="10" t="s">
         <v>442</v>
       </c>
@@ -7378,7 +7395,7 @@
     </row>
     <row r="139" spans="1:10" ht="28.35" customHeight="1">
       <c r="A139" s="13"/>
-      <c r="B139" s="33"/>
+      <c r="B139" s="41"/>
       <c r="C139" s="10" t="s">
         <v>445</v>
       </c>
@@ -7404,7 +7421,7 @@
     </row>
     <row r="140" spans="1:10" ht="28.35" customHeight="1">
       <c r="A140" s="13"/>
-      <c r="B140" s="33"/>
+      <c r="B140" s="41"/>
       <c r="C140" s="10" t="s">
         <v>447</v>
       </c>
@@ -7430,7 +7447,7 @@
     </row>
     <row r="141" spans="1:10" ht="28.35" customHeight="1">
       <c r="A141" s="13"/>
-      <c r="B141" s="33"/>
+      <c r="B141" s="41"/>
       <c r="C141" s="10" t="s">
         <v>450</v>
       </c>
@@ -7456,7 +7473,7 @@
     </row>
     <row r="142" spans="1:10" ht="28.35" customHeight="1">
       <c r="A142" s="13"/>
-      <c r="B142" s="33"/>
+      <c r="B142" s="41"/>
       <c r="C142" s="10" t="s">
         <v>453</v>
       </c>
@@ -7482,7 +7499,7 @@
     </row>
     <row r="143" spans="1:10" ht="28.35" customHeight="1">
       <c r="A143" s="13"/>
-      <c r="B143" s="33"/>
+      <c r="B143" s="41"/>
       <c r="C143" s="10" t="s">
         <v>455</v>
       </c>
@@ -7508,7 +7525,7 @@
     </row>
     <row r="144" spans="1:10" ht="28.35" customHeight="1">
       <c r="A144" s="13"/>
-      <c r="B144" s="33"/>
+      <c r="B144" s="41"/>
       <c r="C144" s="10" t="s">
         <v>458</v>
       </c>
@@ -7534,7 +7551,7 @@
     </row>
     <row r="145" spans="1:10" ht="28.35" customHeight="1">
       <c r="A145" s="13"/>
-      <c r="B145" s="33"/>
+      <c r="B145" s="41"/>
       <c r="C145" s="10" t="s">
         <v>461</v>
       </c>
@@ -7560,7 +7577,7 @@
     </row>
     <row r="146" spans="1:10" ht="28.35" customHeight="1">
       <c r="A146" s="13"/>
-      <c r="B146" s="33"/>
+      <c r="B146" s="41"/>
       <c r="C146" s="10" t="s">
         <v>463</v>
       </c>
@@ -7586,7 +7603,7 @@
     </row>
     <row r="147" spans="1:10" ht="28.35" customHeight="1">
       <c r="A147" s="13"/>
-      <c r="B147" s="33"/>
+      <c r="B147" s="41"/>
       <c r="C147" s="10" t="s">
         <v>466</v>
       </c>
@@ -7612,7 +7629,7 @@
     </row>
     <row r="148" spans="1:10" ht="28.35" customHeight="1">
       <c r="A148" s="13"/>
-      <c r="B148" s="33"/>
+      <c r="B148" s="41"/>
       <c r="C148" s="10" t="s">
         <v>469</v>
       </c>
@@ -7638,7 +7655,7 @@
     </row>
     <row r="149" spans="1:10" ht="28.35" customHeight="1">
       <c r="A149" s="13"/>
-      <c r="B149" s="33"/>
+      <c r="B149" s="41"/>
       <c r="C149" s="10" t="s">
         <v>471</v>
       </c>
@@ -7664,7 +7681,7 @@
     </row>
     <row r="150" spans="1:10" ht="28.35" customHeight="1">
       <c r="A150" s="13"/>
-      <c r="B150" s="33"/>
+      <c r="B150" s="41"/>
       <c r="C150" s="10" t="s">
         <v>474</v>
       </c>
@@ -7690,7 +7707,7 @@
     </row>
     <row r="151" spans="1:10" ht="28.35" customHeight="1">
       <c r="A151" s="13"/>
-      <c r="B151" s="33"/>
+      <c r="B151" s="41"/>
       <c r="C151" s="10" t="s">
         <v>477</v>
       </c>
@@ -7716,7 +7733,7 @@
     </row>
     <row r="152" spans="1:10" ht="28.35" customHeight="1">
       <c r="A152" s="13"/>
-      <c r="B152" s="33"/>
+      <c r="B152" s="41"/>
       <c r="C152" s="10" t="s">
         <v>479</v>
       </c>
@@ -7742,7 +7759,7 @@
     </row>
     <row r="153" spans="1:10" ht="28.35" customHeight="1">
       <c r="A153" s="13"/>
-      <c r="B153" s="33"/>
+      <c r="B153" s="41"/>
       <c r="C153" s="10" t="s">
         <v>482</v>
       </c>
@@ -7768,7 +7785,7 @@
     </row>
     <row r="154" spans="1:10" ht="28.35" customHeight="1">
       <c r="A154" s="13"/>
-      <c r="B154" s="33"/>
+      <c r="B154" s="41"/>
       <c r="C154" s="10" t="s">
         <v>485</v>
       </c>
@@ -7794,7 +7811,7 @@
     </row>
     <row r="155" spans="1:10" ht="28.35" customHeight="1">
       <c r="A155" s="13"/>
-      <c r="B155" s="33"/>
+      <c r="B155" s="41"/>
       <c r="C155" s="10" t="s">
         <v>487</v>
       </c>
@@ -7820,7 +7837,7 @@
     </row>
     <row r="156" spans="1:10" ht="28.35" customHeight="1">
       <c r="A156" s="13"/>
-      <c r="B156" s="33"/>
+      <c r="B156" s="41"/>
       <c r="C156" s="10" t="s">
         <v>490</v>
       </c>
@@ -7846,7 +7863,7 @@
     </row>
     <row r="157" spans="1:10" ht="28.35" customHeight="1">
       <c r="A157" s="13"/>
-      <c r="B157" s="33"/>
+      <c r="B157" s="41"/>
       <c r="C157" s="10" t="s">
         <v>493</v>
       </c>
@@ -7872,7 +7889,7 @@
     </row>
     <row r="158" spans="1:10" ht="28.35" customHeight="1">
       <c r="A158" s="13"/>
-      <c r="B158" s="33"/>
+      <c r="B158" s="41"/>
       <c r="C158" s="10" t="s">
         <v>495</v>
       </c>
@@ -7898,7 +7915,7 @@
     </row>
     <row r="159" spans="1:10" ht="28.35" customHeight="1">
       <c r="A159" s="13"/>
-      <c r="B159" s="33"/>
+      <c r="B159" s="41"/>
       <c r="C159" s="10" t="s">
         <v>498</v>
       </c>
@@ -7924,7 +7941,7 @@
     </row>
     <row r="160" spans="1:10" ht="28.35" customHeight="1">
       <c r="A160" s="13"/>
-      <c r="B160" s="33"/>
+      <c r="B160" s="41"/>
       <c r="C160" s="10" t="s">
         <v>501</v>
       </c>
@@ -7950,7 +7967,7 @@
     </row>
     <row r="161" spans="1:10" ht="28.35" customHeight="1">
       <c r="A161" s="13"/>
-      <c r="B161" s="33"/>
+      <c r="B161" s="41"/>
       <c r="C161" s="10" t="s">
         <v>503</v>
       </c>
@@ -7976,7 +7993,7 @@
     </row>
     <row r="162" spans="1:10" ht="28.35" customHeight="1">
       <c r="A162" s="13"/>
-      <c r="B162" s="33"/>
+      <c r="B162" s="41"/>
       <c r="C162" s="10" t="s">
         <v>506</v>
       </c>
@@ -8002,7 +8019,7 @@
     </row>
     <row r="163" spans="1:10" ht="28.35" customHeight="1">
       <c r="A163" s="13"/>
-      <c r="B163" s="33"/>
+      <c r="B163" s="41"/>
       <c r="C163" s="10" t="s">
         <v>509</v>
       </c>
@@ -8028,7 +8045,7 @@
     </row>
     <row r="164" spans="1:10" ht="28.35" customHeight="1">
       <c r="A164" s="13"/>
-      <c r="B164" s="33"/>
+      <c r="B164" s="41"/>
       <c r="C164" s="10" t="s">
         <v>511</v>
       </c>
@@ -8054,7 +8071,7 @@
     </row>
     <row r="165" spans="1:10" ht="28.35" customHeight="1">
       <c r="A165" s="13"/>
-      <c r="B165" s="33"/>
+      <c r="B165" s="41"/>
       <c r="C165" s="10" t="s">
         <v>514</v>
       </c>
@@ -8080,7 +8097,7 @@
     </row>
     <row r="166" spans="1:10" ht="28.35" customHeight="1">
       <c r="A166" s="13"/>
-      <c r="B166" s="33"/>
+      <c r="B166" s="41"/>
       <c r="C166" s="10" t="s">
         <v>517</v>
       </c>
@@ -8106,7 +8123,7 @@
     </row>
     <row r="167" spans="1:10" ht="28.35" customHeight="1">
       <c r="A167" s="13"/>
-      <c r="B167" s="33"/>
+      <c r="B167" s="41"/>
       <c r="C167" s="10" t="s">
         <v>519</v>
       </c>
@@ -8132,7 +8149,7 @@
     </row>
     <row r="168" spans="1:10" ht="28.35" customHeight="1">
       <c r="A168" s="13"/>
-      <c r="B168" s="33"/>
+      <c r="B168" s="41"/>
       <c r="C168" s="10" t="s">
         <v>522</v>
       </c>
@@ -8158,7 +8175,7 @@
     </row>
     <row r="169" spans="1:10" ht="28.35" customHeight="1">
       <c r="A169" s="13"/>
-      <c r="B169" s="33"/>
+      <c r="B169" s="41"/>
       <c r="C169" s="10" t="s">
         <v>525</v>
       </c>
@@ -8184,7 +8201,7 @@
     </row>
     <row r="170" spans="1:10" ht="28.35" customHeight="1">
       <c r="A170" s="13"/>
-      <c r="B170" s="33"/>
+      <c r="B170" s="41"/>
       <c r="C170" s="10" t="s">
         <v>527</v>
       </c>
@@ -8210,7 +8227,7 @@
     </row>
     <row r="171" spans="1:10" ht="28.35" customHeight="1">
       <c r="A171" s="13"/>
-      <c r="B171" s="33"/>
+      <c r="B171" s="41"/>
       <c r="C171" s="10" t="s">
         <v>530</v>
       </c>
@@ -8236,7 +8253,7 @@
     </row>
     <row r="172" spans="1:10" ht="28.35" customHeight="1">
       <c r="A172" s="13"/>
-      <c r="B172" s="33"/>
+      <c r="B172" s="41"/>
       <c r="C172" s="10" t="s">
         <v>533</v>
       </c>
@@ -8262,7 +8279,7 @@
     </row>
     <row r="173" spans="1:10" ht="28.35" customHeight="1">
       <c r="A173" s="13"/>
-      <c r="B173" s="33"/>
+      <c r="B173" s="41"/>
       <c r="C173" s="10" t="s">
         <v>535</v>
       </c>
@@ -8287,10 +8304,10 @@
       </c>
     </row>
     <row r="174" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A174" s="45" t="s">
+      <c r="A174" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="B174" s="46" t="s">
+      <c r="B174" s="43" t="s">
         <v>539</v>
       </c>
       <c r="C174" s="6" t="s">
@@ -8311,8 +8328,8 @@
       <c r="J174" s="6"/>
     </row>
     <row r="175" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A175" s="45"/>
-      <c r="B175" s="46"/>
+      <c r="A175" s="42"/>
+      <c r="B175" s="43"/>
       <c r="C175" s="6" t="s">
         <v>543</v>
       </c>
@@ -8331,8 +8348,8 @@
       <c r="J175" s="6"/>
     </row>
     <row r="176" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A176" s="45"/>
-      <c r="B176" s="47" t="s">
+      <c r="A176" s="42"/>
+      <c r="B176" s="44" t="s">
         <v>545</v>
       </c>
       <c r="C176" s="6" t="s">
@@ -8353,8 +8370,8 @@
       <c r="J176" s="6"/>
     </row>
     <row r="177" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A177" s="45"/>
-      <c r="B177" s="47"/>
+      <c r="A177" s="42"/>
+      <c r="B177" s="44"/>
       <c r="C177" s="6" t="s">
         <v>27</v>
       </c>
@@ -8375,8 +8392,8 @@
       <c r="J177" s="6"/>
     </row>
     <row r="178" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A178" s="45"/>
-      <c r="B178" s="47"/>
+      <c r="A178" s="42"/>
+      <c r="B178" s="44"/>
       <c r="C178" s="6" t="s">
         <v>26</v>
       </c>
@@ -8397,8 +8414,8 @@
       <c r="J178" s="6"/>
     </row>
     <row r="179" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A179" s="45"/>
-      <c r="B179" s="47"/>
+      <c r="A179" s="42"/>
+      <c r="B179" s="44"/>
       <c r="C179" s="6" t="s">
         <v>553</v>
       </c>
@@ -8419,8 +8436,8 @@
       <c r="J179" s="6"/>
     </row>
     <row r="180" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A180" s="45"/>
-      <c r="B180" s="47"/>
+      <c r="A180" s="42"/>
+      <c r="B180" s="44"/>
       <c r="C180" s="6" t="s">
         <v>557</v>
       </c>
@@ -8439,8 +8456,8 @@
       <c r="J180" s="6"/>
     </row>
     <row r="181" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A181" s="45"/>
-      <c r="B181" s="47"/>
+      <c r="A181" s="42"/>
+      <c r="B181" s="44"/>
       <c r="C181" s="6" t="s">
         <v>560</v>
       </c>
@@ -8459,8 +8476,8 @@
       <c r="J181" s="6"/>
     </row>
     <row r="182" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A182" s="45"/>
-      <c r="B182" s="47"/>
+      <c r="A182" s="42"/>
+      <c r="B182" s="44"/>
       <c r="C182" s="6" t="s">
         <v>562</v>
       </c>
@@ -8481,8 +8498,8 @@
       <c r="J182" s="6"/>
     </row>
     <row r="183" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A183" s="45"/>
-      <c r="B183" s="47" t="s">
+      <c r="A183" s="42"/>
+      <c r="B183" s="44" t="s">
         <v>565</v>
       </c>
       <c r="C183" s="6" t="s">
@@ -8505,8 +8522,8 @@
       <c r="J183" s="6"/>
     </row>
     <row r="184" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A184" s="45"/>
-      <c r="B184" s="47"/>
+      <c r="A184" s="42"/>
+      <c r="B184" s="44"/>
       <c r="C184" s="6" t="s">
         <v>570</v>
       </c>
@@ -8527,8 +8544,8 @@
       <c r="J184" s="6"/>
     </row>
     <row r="185" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A185" s="45"/>
-      <c r="B185" s="47"/>
+      <c r="A185" s="42"/>
+      <c r="B185" s="44"/>
       <c r="C185" s="6" t="s">
         <v>574</v>
       </c>
@@ -8549,8 +8566,8 @@
       <c r="J185" s="6"/>
     </row>
     <row r="186" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A186" s="45"/>
-      <c r="B186" s="47"/>
+      <c r="A186" s="42"/>
+      <c r="B186" s="44"/>
       <c r="C186" s="6" t="s">
         <v>577</v>
       </c>
@@ -8571,8 +8588,8 @@
       <c r="J186" s="6"/>
     </row>
     <row r="187" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A187" s="45"/>
-      <c r="B187" s="47"/>
+      <c r="A187" s="42"/>
+      <c r="B187" s="44"/>
       <c r="C187" s="6" t="s">
         <v>581</v>
       </c>
@@ -8591,8 +8608,8 @@
       <c r="J187" s="6"/>
     </row>
     <row r="188" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A188" s="45"/>
-      <c r="B188" s="47" t="s">
+      <c r="A188" s="42"/>
+      <c r="B188" s="44" t="s">
         <v>584</v>
       </c>
       <c r="C188" s="6" t="s">
@@ -8613,8 +8630,8 @@
       <c r="J188" s="6"/>
     </row>
     <row r="189" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A189" s="45"/>
-      <c r="B189" s="47"/>
+      <c r="A189" s="42"/>
+      <c r="B189" s="44"/>
       <c r="C189" s="6" t="s">
         <v>588</v>
       </c>
@@ -8635,8 +8652,8 @@
       <c r="J189" s="6"/>
     </row>
     <row r="190" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A190" s="45"/>
-      <c r="B190" s="47" t="s">
+      <c r="A190" s="42"/>
+      <c r="B190" s="44" t="s">
         <v>592</v>
       </c>
       <c r="C190" s="6" t="s">
@@ -8657,8 +8674,8 @@
       <c r="J190" s="6"/>
     </row>
     <row r="191" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A191" s="45"/>
-      <c r="B191" s="47"/>
+      <c r="A191" s="42"/>
+      <c r="B191" s="44"/>
       <c r="C191" s="6" t="s">
         <v>595</v>
       </c>
@@ -8679,8 +8696,8 @@
       <c r="J191" s="6"/>
     </row>
     <row r="192" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A192" s="45"/>
-      <c r="B192" s="47"/>
+      <c r="A192" s="42"/>
+      <c r="B192" s="44"/>
       <c r="C192" s="6" t="s">
         <v>599</v>
       </c>
@@ -8701,8 +8718,8 @@
       <c r="J192" s="6"/>
     </row>
     <row r="193" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A193" s="45"/>
-      <c r="B193" s="47"/>
+      <c r="A193" s="42"/>
+      <c r="B193" s="44"/>
       <c r="C193" s="6" t="s">
         <v>603</v>
       </c>
@@ -8721,8 +8738,8 @@
       <c r="J193" s="6"/>
     </row>
     <row r="194" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A194" s="45"/>
-      <c r="B194" s="47"/>
+      <c r="A194" s="42"/>
+      <c r="B194" s="44"/>
       <c r="C194" s="6" t="s">
         <v>606</v>
       </c>
@@ -8743,8 +8760,8 @@
       <c r="J194" s="6"/>
     </row>
     <row r="195" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A195" s="45"/>
-      <c r="B195" s="47" t="s">
+      <c r="A195" s="42"/>
+      <c r="B195" s="44" t="s">
         <v>609</v>
       </c>
       <c r="C195" s="6" t="s">
@@ -8765,8 +8782,8 @@
       <c r="J195" s="6"/>
     </row>
     <row r="196" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A196" s="45"/>
-      <c r="B196" s="47"/>
+      <c r="A196" s="42"/>
+      <c r="B196" s="44"/>
       <c r="C196" s="6" t="s">
         <v>612</v>
       </c>
@@ -8785,8 +8802,8 @@
       <c r="J196" s="6"/>
     </row>
     <row r="197" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A197" s="45"/>
-      <c r="B197" s="47"/>
+      <c r="A197" s="42"/>
+      <c r="B197" s="44"/>
       <c r="C197" s="6" t="s">
         <v>616</v>
       </c>
@@ -8805,8 +8822,8 @@
       <c r="J197" s="6"/>
     </row>
     <row r="198" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A198" s="45"/>
-      <c r="B198" s="47"/>
+      <c r="A198" s="42"/>
+      <c r="B198" s="44"/>
       <c r="C198" s="6" t="s">
         <v>619</v>
       </c>
@@ -8825,8 +8842,8 @@
       <c r="J198" s="6"/>
     </row>
     <row r="199" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A199" s="45"/>
-      <c r="B199" s="47" t="s">
+      <c r="A199" s="42"/>
+      <c r="B199" s="44" t="s">
         <v>621</v>
       </c>
       <c r="C199" s="6" t="s">
@@ -8847,8 +8864,8 @@
       <c r="J199" s="6"/>
     </row>
     <row r="200" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A200" s="45"/>
-      <c r="B200" s="47"/>
+      <c r="A200" s="42"/>
+      <c r="B200" s="44"/>
       <c r="C200" s="6" t="s">
         <v>624</v>
       </c>
@@ -8867,8 +8884,8 @@
       <c r="J200" s="6"/>
     </row>
     <row r="201" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A201" s="45"/>
-      <c r="B201" s="47"/>
+      <c r="A201" s="42"/>
+      <c r="B201" s="44"/>
       <c r="C201" s="6" t="s">
         <v>626</v>
       </c>
@@ -8887,8 +8904,8 @@
       <c r="J201" s="6"/>
     </row>
     <row r="202" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A202" s="45"/>
-      <c r="B202" s="47"/>
+      <c r="A202" s="42"/>
+      <c r="B202" s="44"/>
       <c r="C202" s="6" t="s">
         <v>628</v>
       </c>
@@ -8916,19 +8933,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B71"/>
-    <mergeCell ref="B72:B116"/>
-    <mergeCell ref="B117:B173"/>
-    <mergeCell ref="A174:A202"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="B176:B182"/>
-    <mergeCell ref="B183:B187"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="B190:B194"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="B199:B202"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="G4:G6"/>
@@ -8941,6 +8945,19 @@
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A174:A202"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B176:B182"/>
+    <mergeCell ref="B183:B187"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="B190:B194"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B71"/>
+    <mergeCell ref="B72:B116"/>
+    <mergeCell ref="B117:B173"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G9 G11:G13">
@@ -9002,193 +9019,193 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="54" t="s">
         <v>673</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9210,966 +9227,966 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="54" t="s">
         <v>672</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10179,4 +10196,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="33.25" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Base-宽表/用户标签整理/用户画像标签系统V2.0版本-数据统计.xlsx
+++ b/Base-宽表/用户标签整理/用户画像标签系统V2.0版本-数据统计.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="2" r:id="rId1"/>
     <sheet name="指标体系" sheetId="1" r:id="rId2"/>
-    <sheet name="t_v_real_customer" sheetId="3" r:id="rId3"/>
-    <sheet name="t_v_real_order" sheetId="4" r:id="rId4"/>
-    <sheet name="基础表维护" sheetId="5" r:id="rId5"/>
+    <sheet name="真实用户评分" sheetId="6" r:id="rId3"/>
+    <sheet name="基础表维护" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="695">
   <si>
     <t>分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2752,51 +2751,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">SELECT o.id order_id, o.order_sn, o.group_id order_group_id, o.order_type, o.business_model_id, o.customer_id, o.order_address_id, o.store_id, o.eshop_id, o.order_status, o.order_source, o.invoice_status, o.buyer_remark, o.seller_remark, o.employee_remark, o.store_remark, o.abnormal_type, ifnull(o.abnormal_remark, '') abnormal_remark, o.delivery_type, o.trading_price, o.payable_price, o.score order_score, o.is_split, o.employee_id, o.employee_phone, o.employee_name, o.appointment_start_time, o.appointment_end_time, o.eshop_combo_pro_id, o.expiry_date, o.combo_price, o.total_quantity, o.groupon_instance_id, o.status order_del_status, o.version order_version, o.create_user order_create_user, o.create_time order_create_time, o.update_user order_update_user, o.update_time order_update_time, o.create_user_id order_create_user_id, o.update_user_id order_update_user_id, o.order_sn_reserve, o.normal_store_id, o.third_part order_third_part, o.sign_time, s.name store_name, s.address store_address, s.manager_id, s.mobilephone store_mobilephone, s.telephone store_telephone, s.service_phone, concat(s.province_code, '000000') store_province_code, concat(strleft(s.ad_code, 4), '00000000') store_city_code, concat(s.ad_code, '000000') store_county_code, s.city_code store_city_area_code, s.town_id, s.complete_address, s.latitude store_latitude, s.longitude store_longitude, s.logo_url, s.number, s.white store_white, s.cloud_map_flag, s.status store_del_status, s.version store_version, s.create_user_id store_create_user_id, s.create_user store_create_user, s.create_time store_create_time, s.update_user_id store_update_user_id, s.update_user store_update_user, s.update_time store_update_time, s.is_show, s.code store_code, e.name eshop_name, e.seller_id, e.telephone eshop_telephone, e.content_img, e.`sort`, e.detail_address eshop_detail_address, e.order_lagtime, e.self, e.business_type, e.publish, e.status eshop_del_status, e.freeze_status, e.business_status, e.white eshop_white, e.version eshop_version, e.create_user eshop_create_user, e.create_time eshop_create_time, e.update_user eshop_update_user, e.update_time eshop_update_time, e.create_user_id eshop_create_user_id, e.update_user_id eshop_update_user_id, e.fail_reason, e.type eshop_type, e.department_id, e.self_inventory, e.month_sale_self, e.invoice, e.support_bar, e.freight, e.free_freight_limit, e.dispatch_limit, e.send_type, e.month_sale, e.code eshop_code, e.product_review, e.order_userinfo_visible, e.compensation_first, e.eshop_kind, e.need_entering_idcard, e.need_delivery_time, e.export_report, concat(e.province_code, '000000') eshop_province_code, concat(strleft(e.area_code, 4), '00000000') eshop_city_code, concat(e.area_code, '000000') eshop_county_code, e.city_code eshop_city_area_code, e.contrast_data, e.operation_base_status, e.certificate_status, e.is_pass, e.notice_type, e.third_part eshop_third_part, e.operation_base_reason, e.only_special_balance, e.operation_first_userid, e.operation_first_time, e.auto_confirm_transfer, e.taxpayer_num_id, ifnull(e.bussiness_group_id, '') bussiness_group_id, ifnull(e.channel_id, '') channel_id, e.area_company_id, e.is_plus, e.joint_ims, ifnull(c.short_name, '') cust_short_name, c.associator_level, c.associator_expiry_date, c.password cust_password, ifnull(c.name, '') cust_name, c.sex, c.birthday, ifnull(c.mobilephone, '') cust_mobilephone, c.customer_type, c.customer_source, c.citic_open_id, c.telephone cust_telephone, c.mail, c.black_flg, c.avatar, c.last_login, c.device_os, c.app_token, c.white cust_white, c.longitude cust_longitude, c.latitude cust_latitude, c.storeId, c.wx_pub_open_id, c.score cust_score, c.growth, c.grade, c.plus_flag, c.plus_expiry_date, c.member_flag, c.member_expiry_date, c.remark, c.status cust_del_status, c.version cust_version, c.create_user_id cust_create_user_id, c.create_user cust_create_user, c.create_time cust_create_time, c.update_user_id cust_update_user_id, c.update_user cust_update_user, c.update_time cust_update_time, c.account, c.city_code cust_city_area_code, dc.number dc_number, dc.name dc_name, dc.code dc_code, dc.parent_id dc_parent_id, dc.level dc_level, dc.status dc_del_status, dc.version dc_version, dc.create_user dc_create_user, dc.create_time dc_create_time, dc.update_user dc_update_user, dc.update_time dc_update_time, dc.create_user_id dc_create_user_id, dc.update_user_id dc_update_user_id, dcc.number dcc_number, dcc.name dcc_name, dcc.code dcc_code, dcc.parent_id dcc_parent_id, dcc.level dcc_level, dcc.status dcc_del_status, dcc.version dcc_version, dcc.create_user dcc_create_user, dcc.create_time dcc_create_time, dcc.update_user dcc_update_user, dcc.update_time dcc_update_time, dcc.create_user_id dcc_create_user_id, dcc.update_user_id dcc_update_user_id, cp.number cp_number, cp.name cp_name, cp.short_name cp_short_name, cp.type cp_type, cp.address cp_address, cp.code cp_code, concat(cp.province_code, '000000') cp_province_code, cp.city_code cp_city_area_code, cp.telephone cp_telephone, cp.electronic_invoice_flag, cp.drawer, cp.taxpayer_num, cp.bank_name, cp.bank_account, cp.status cp_del_status, cp.version cp_version, cp.create_user cp_create_user, cp.create_time cp_create_time, cp.update_user cp_update_user, cp.update_time cp_update_time, cp.create_user_id cp_create_user_id, cp.update_user_id cp_update_user_id, concat(oa.province_code, '000000') oa_province_code, oa.province_name oa_province_name, concat(strleft(oa.ad_code, 4), '000000') oa_city_code, oa.city_name oa_city_name, concat(oa.ad_code, '000000 ') oa_county_code, oa.ad_name oa_county_name, oa.city_code oa_city_area_code, oa.placename, oa.latitude oa_latitude, oa.longitude oa_longitude, oa.detail_address oa_detail_address, oa.address oa_address, oa.zipcode, oa.name oa_name, oa.mobilephone oa_mobilephone, oa.status oa_del_status, oa.version oa_version, oa.create_user_id oa_create_user_id, oa.create_user oa_create_user, oa.create_time oa_create_time, oa.update_user_id oa_update_user_id, oa.update_user oa_update_user, oa.update_time oa_update_time, oa.express_code, oa.express_name, oa.tracking_number, oa.delivery_time FROM gabdp_user.t_order o LEFT OUTER JOIN gabdp_user.t_store s ON s.id = o.store_id LEFT OUTER JOIN gabdp_user.t_eshop e ON e.id = o.eshop_id LEFT OUTER JOIN gabdp_user.t_customer c ON c.id = o.customer_id LEFT OUTER JOIN gabdp_user.t_department_channel dc ON dc.id = e.bussiness_group_id LEFT OUTER JOIN gabdp_user.t_department_channel dcc ON dcc.id = e.channel_id LEFT OUTER JOIN gabdp_user.t_company cp ON cp.id = e.area_company_id LEFT OUTER JOIN gabdp_user.t_order_address oa ON oa.id = o.order_address_id WHERE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(NOT o.abnormal_remark LIKE '%测试%' OR o.abnormal_remark IS NULL) AND o.order_status IN ('signed', 'commented', 'success') AND e.white != 'QA' AND NOT e.name LIKE '%测试%' AND ((s.white != 'QA' AND s.status = 0) OR s.id = '00000000000000000000000000000084') AND NOT s.name LIKE '%测试%' AND NOT s.name LIKE '%企业购%' AND NOT s.name LIKE '%内购%' AND c.white IN ('partner', 'normal', 'vip') AND substr(ifnull(c.mobilephone, ''), 1, 3) NOT IN ('170', '171') AND ((NOT c.short_name LIKE '%虚拟%' AND NOT c.short_name LIKE '%测试%') OR c.short_name IS NULL) AND ifnull(c.mobilephone, '') NOT IN (SELECT DISTINCT mobilephone FROM gabdp_user.t_employee)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SELECT c.id, if(c.short_name IS NULL, '', c.short_name) short_name, sc.city_code cust_city_code, c.associator_level, c.associator_expiry_date, c.password, if(c.name IS NULL, '', c.name) name, c.sex, c.birthday, if(c.mobilephone IS NULL, '', c.mobilephone) mobilephone, c.customer_type, c.customer_source, c.citic_open_id, c.telephone, c.mail, c.black_flg, c.avatar, c.last_login, c.device_os, c.app_token, c.white, c.longitude, c.latitude, c.storeId, c.wx_pub_open_id, c.score, c.growth, c.grade, c.plus_flag, c.plus_expiry_date, c.member_flag, c.member_expiry_date, c.remark, c.status, c.version, c.create_user_id, c.create_user, c.create_time, c.update_user_id, c.update_user, c.update_time, c.account, c.city_code cust_city_area_code FROM gabdp_user.t_customer c LEFT OUTER JOIN gabdp_user.t_sys_citycode sc ON sc.city_tel_code = c.city_code WHERE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">c.white IN ('partner', 'normal', 'vip') AND substr(if(c.mobilephone IS NULL, '', c.mobilephone), 1, 3) NOT IN ('170', '171') AND ((NOT c.short_name LIKE '%虚拟%' AND NOT c.short_name LIKE '%测试%') OR c.short_name IS NULL) AND if(c.mobilephone IS NULL, '', c.mobilephone) NOT IN (SELECT DISTINCT mobilephone FROM gabdp_user.t_employee) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是否是内部员工</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2826,6 +2780,66 @@
   </si>
   <si>
     <t>社员用户及所属城市表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签中文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签标示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国安社区员工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guoan_employee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff,guoanxia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过账支付用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过账金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各渠道下单次数（累计）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_source_&lt;app,callcenter,store...&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近360天用户消费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_platform_posting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_user_360ds_order_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近360天的用户消费统计数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户下单渠道</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2833,7 +2847,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2922,14 +2936,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3082,7 +3088,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3194,31 +3200,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3239,14 +3227,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3695,7 +3698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3899,7 +3902,7 @@
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.35" customHeight="1"/>
@@ -3952,7 +3955,7 @@
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3976,7 +3979,7 @@
     </row>
     <row r="3" spans="1:10" ht="28.35" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="41"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
@@ -3998,7 +4001,7 @@
     </row>
     <row r="4" spans="1:10" ht="28.35" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="41"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="9" t="s">
         <v>20</v>
       </c>
@@ -4009,10 +4012,10 @@
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="43" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="6"/>
@@ -4022,7 +4025,7 @@
     </row>
     <row r="5" spans="1:10" ht="28.35" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="41"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
@@ -4033,8 +4036,8 @@
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="50"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
         <v>16</v>
@@ -4042,7 +4045,7 @@
     </row>
     <row r="6" spans="1:10" ht="28.35" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="41"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
@@ -4053,8 +4056,8 @@
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="51"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
         <v>16</v>
@@ -4062,7 +4065,7 @@
     </row>
     <row r="7" spans="1:10" ht="28.35" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="45"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
@@ -4086,7 +4089,7 @@
     </row>
     <row r="8" spans="1:10" ht="28.35" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="41"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
@@ -4132,7 +4135,7 @@
     </row>
     <row r="10" spans="1:10" ht="28.35" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="37"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="6" t="s">
         <v>38</v>
       </c>
@@ -4154,7 +4157,7 @@
     </row>
     <row r="11" spans="1:10" ht="28.35" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="37"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="6" t="s">
         <v>41</v>
       </c>
@@ -4176,7 +4179,7 @@
     </row>
     <row r="12" spans="1:10" ht="28.35" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="37"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
@@ -4200,7 +4203,7 @@
     </row>
     <row r="13" spans="1:10" ht="28.35" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="37"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
@@ -4224,7 +4227,7 @@
     </row>
     <row r="14" spans="1:10" ht="28.35" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="37"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="6" t="s">
         <v>52</v>
       </c>
@@ -4248,7 +4251,7 @@
     </row>
     <row r="15" spans="1:10" ht="28.35" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="40"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="10" t="s">
         <v>56</v>
       </c>
@@ -4272,7 +4275,7 @@
     </row>
     <row r="16" spans="1:10" ht="28.35" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -4296,7 +4299,7 @@
     </row>
     <row r="17" spans="1:10" ht="28.35" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="6" t="s">
         <v>65</v>
       </c>
@@ -4318,7 +4321,7 @@
     </row>
     <row r="18" spans="1:10" ht="28.35" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -4342,7 +4345,7 @@
     </row>
     <row r="19" spans="1:10" ht="28.35" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="41"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="10" t="s">
         <v>72</v>
       </c>
@@ -4364,7 +4367,7 @@
     </row>
     <row r="20" spans="1:10" ht="28.35" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="41"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="10" t="s">
         <v>76</v>
       </c>
@@ -4386,7 +4389,7 @@
     </row>
     <row r="21" spans="1:10" ht="28.35" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="41"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="10" t="s">
         <v>78</v>
       </c>
@@ -4408,7 +4411,7 @@
     </row>
     <row r="22" spans="1:10" ht="28.35" customHeight="1">
       <c r="A22" s="8"/>
-      <c r="B22" s="41"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="10" t="s">
         <v>81</v>
       </c>
@@ -4428,7 +4431,7 @@
     </row>
     <row r="23" spans="1:10" ht="28.35" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="7" t="s">
         <v>84</v>
       </c>
@@ -4450,7 +4453,7 @@
     </row>
     <row r="24" spans="1:10" ht="28.35" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="41"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="10" t="s">
         <v>86</v>
       </c>
@@ -4474,27 +4477,27 @@
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
       <c r="C25" s="32" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="33" t="s">
+        <v>673</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>674</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>674</v>
+      </c>
+      <c r="H25" s="34" t="s">
         <v>675</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>676</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>676</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>677</v>
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" ht="28.35" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="39" t="s">
         <v>89</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -4518,7 +4521,7 @@
     </row>
     <row r="27" spans="1:10" ht="28.35" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="41"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="10" t="s">
         <v>94</v>
       </c>
@@ -4540,7 +4543,7 @@
     </row>
     <row r="28" spans="1:10" ht="28.35" customHeight="1">
       <c r="A28" s="8"/>
-      <c r="B28" s="41"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="10" t="s">
         <v>97</v>
       </c>
@@ -4562,7 +4565,7 @@
     </row>
     <row r="29" spans="1:10" ht="28.35" customHeight="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="41"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="10" t="s">
         <v>100</v>
       </c>
@@ -4586,7 +4589,7 @@
     </row>
     <row r="30" spans="1:10" ht="28.35" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="52"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="7" t="s">
         <v>104</v>
       </c>
@@ -4608,7 +4611,7 @@
     </row>
     <row r="31" spans="1:10" ht="28.35" customHeight="1">
       <c r="A31" s="8"/>
-      <c r="B31" s="52"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="7" t="s">
         <v>109</v>
       </c>
@@ -4654,7 +4657,7 @@
     </row>
     <row r="33" spans="1:10" ht="28.35" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="37"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="6" t="s">
         <v>118</v>
       </c>
@@ -4677,7 +4680,7 @@
     </row>
     <row r="34" spans="1:10" ht="28.35" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="37"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="7" t="s">
         <v>121</v>
       </c>
@@ -4701,7 +4704,7 @@
     </row>
     <row r="35" spans="1:10" ht="28.35" customHeight="1">
       <c r="A35" s="8"/>
-      <c r="B35" s="38"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="10" t="s">
         <v>125</v>
       </c>
@@ -4727,7 +4730,7 @@
     </row>
     <row r="36" spans="1:10" ht="28.35" customHeight="1">
       <c r="A36" s="8"/>
-      <c r="B36" s="37"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="6" t="s">
         <v>129</v>
       </c>
@@ -4753,7 +4756,7 @@
     </row>
     <row r="37" spans="1:10" ht="28.35" customHeight="1">
       <c r="A37" s="8"/>
-      <c r="B37" s="38"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="10" t="s">
         <v>133</v>
       </c>
@@ -4781,7 +4784,7 @@
     </row>
     <row r="38" spans="1:10" ht="28.35" customHeight="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="38" t="s">
         <v>137</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -4807,7 +4810,7 @@
     </row>
     <row r="39" spans="1:10" ht="28.35" customHeight="1">
       <c r="A39" s="13"/>
-      <c r="B39" s="45"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="7" t="s">
         <v>143</v>
       </c>
@@ -4831,7 +4834,7 @@
     </row>
     <row r="40" spans="1:10" ht="28.35" customHeight="1">
       <c r="A40" s="13"/>
-      <c r="B40" s="45"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="7" t="s">
         <v>145</v>
       </c>
@@ -4855,7 +4858,7 @@
     </row>
     <row r="41" spans="1:10" ht="28.35" customHeight="1">
       <c r="A41" s="13"/>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="38" t="s">
         <v>147</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -4881,7 +4884,7 @@
     </row>
     <row r="42" spans="1:10" ht="28.35" customHeight="1">
       <c r="A42" s="13"/>
-      <c r="B42" s="45"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="7" t="s">
         <v>151</v>
       </c>
@@ -4905,7 +4908,7 @@
     </row>
     <row r="43" spans="1:10" ht="28.35" customHeight="1">
       <c r="A43" s="13"/>
-      <c r="B43" s="45"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="7" t="s">
         <v>154</v>
       </c>
@@ -4929,7 +4932,7 @@
     </row>
     <row r="44" spans="1:10" ht="28.35" customHeight="1">
       <c r="A44" s="13"/>
-      <c r="B44" s="45"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="7" t="s">
         <v>156</v>
       </c>
@@ -4979,7 +4982,7 @@
     </row>
     <row r="46" spans="1:10" ht="28.35" customHeight="1">
       <c r="A46" s="13"/>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="49" t="s">
         <v>164</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -5007,7 +5010,7 @@
     </row>
     <row r="47" spans="1:10" ht="28.35" customHeight="1">
       <c r="A47" s="13"/>
-      <c r="B47" s="39"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="10" t="s">
         <v>169</v>
       </c>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="49" spans="1:10" ht="28.35" customHeight="1">
       <c r="A49" s="13"/>
-      <c r="B49" s="40"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="6" t="s">
         <v>179</v>
       </c>
@@ -5113,7 +5116,7 @@
     </row>
     <row r="51" spans="1:10" ht="28.35" customHeight="1">
       <c r="A51" s="13"/>
-      <c r="B51" s="37"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="6" t="s">
         <v>187</v>
       </c>
@@ -5137,7 +5140,7 @@
     </row>
     <row r="52" spans="1:10" ht="28.35" customHeight="1">
       <c r="A52" s="13"/>
-      <c r="B52" s="38"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="10" t="s">
         <v>190</v>
       </c>
@@ -5163,7 +5166,7 @@
     </row>
     <row r="53" spans="1:10" ht="28.35" customHeight="1">
       <c r="A53" s="13"/>
-      <c r="B53" s="39"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="10" t="s">
         <v>194</v>
       </c>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="57" spans="1:10" ht="28.35" customHeight="1">
       <c r="A57" s="13"/>
-      <c r="B57" s="40"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="6" t="s">
         <v>213</v>
       </c>
@@ -5327,7 +5330,7 @@
     </row>
     <row r="59" spans="1:10" ht="28.35" customHeight="1">
       <c r="A59" s="13"/>
-      <c r="B59" s="37"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="6" t="s">
         <v>222</v>
       </c>
@@ -5351,7 +5354,7 @@
     </row>
     <row r="60" spans="1:10" ht="28.35" customHeight="1">
       <c r="A60" s="13"/>
-      <c r="B60" s="37"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="6" t="s">
         <v>225</v>
       </c>
@@ -5375,7 +5378,7 @@
     </row>
     <row r="61" spans="1:10" ht="28.35" customHeight="1">
       <c r="A61" s="13"/>
-      <c r="B61" s="37"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="6" t="s">
         <v>228</v>
       </c>
@@ -5399,7 +5402,7 @@
     </row>
     <row r="62" spans="1:10" ht="28.35" customHeight="1">
       <c r="A62" s="13"/>
-      <c r="B62" s="38"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="10" t="s">
         <v>232</v>
       </c>
@@ -5423,7 +5426,7 @@
     </row>
     <row r="63" spans="1:10" ht="28.35" customHeight="1">
       <c r="A63" s="13"/>
-      <c r="B63" s="38"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="10" t="s">
         <v>236</v>
       </c>
@@ -5447,7 +5450,7 @@
     </row>
     <row r="64" spans="1:10" ht="28.35" customHeight="1">
       <c r="A64" s="13"/>
-      <c r="B64" s="38"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="10" t="s">
         <v>239</v>
       </c>
@@ -5473,7 +5476,7 @@
     </row>
     <row r="65" spans="1:10" ht="28.35" customHeight="1">
       <c r="A65" s="13"/>
-      <c r="B65" s="38"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="10" t="s">
         <v>243</v>
       </c>
@@ -5499,7 +5502,7 @@
     </row>
     <row r="66" spans="1:10" ht="28.35" customHeight="1">
       <c r="A66" s="13"/>
-      <c r="B66" s="38"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="10" t="s">
         <v>246</v>
       </c>
@@ -5525,7 +5528,7 @@
     </row>
     <row r="67" spans="1:10" ht="28.35" customHeight="1">
       <c r="A67" s="13"/>
-      <c r="B67" s="38"/>
+      <c r="B67" s="48"/>
       <c r="C67" s="10" t="s">
         <v>250</v>
       </c>
@@ -5551,7 +5554,7 @@
     </row>
     <row r="68" spans="1:10" ht="28.35" customHeight="1">
       <c r="A68" s="13"/>
-      <c r="B68" s="38"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="10" t="s">
         <v>253</v>
       </c>
@@ -5577,7 +5580,7 @@
     </row>
     <row r="69" spans="1:10" ht="28.35" customHeight="1">
       <c r="A69" s="13"/>
-      <c r="B69" s="38"/>
+      <c r="B69" s="48"/>
       <c r="C69" s="10" t="s">
         <v>255</v>
       </c>
@@ -5603,7 +5606,7 @@
     </row>
     <row r="70" spans="1:10" ht="28.35" customHeight="1">
       <c r="A70" s="13"/>
-      <c r="B70" s="38"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="10" t="s">
         <v>258</v>
       </c>
@@ -5629,7 +5632,7 @@
     </row>
     <row r="71" spans="1:10" ht="28.35" customHeight="1">
       <c r="A71" s="13"/>
-      <c r="B71" s="39"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="10" t="s">
         <v>260</v>
       </c>
@@ -5655,7 +5658,7 @@
     </row>
     <row r="72" spans="1:10" ht="28.35" customHeight="1">
       <c r="A72" s="13"/>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="39" t="s">
         <v>262</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -5683,7 +5686,7 @@
     </row>
     <row r="73" spans="1:10" ht="28.35" customHeight="1">
       <c r="A73" s="13"/>
-      <c r="B73" s="41"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="10" t="s">
         <v>267</v>
       </c>
@@ -5709,7 +5712,7 @@
     </row>
     <row r="74" spans="1:10" ht="28.35" customHeight="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="41"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="10" t="s">
         <v>271</v>
       </c>
@@ -5735,7 +5738,7 @@
     </row>
     <row r="75" spans="1:10" ht="28.35" customHeight="1">
       <c r="A75" s="13"/>
-      <c r="B75" s="41"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="10" t="s">
         <v>274</v>
       </c>
@@ -5761,7 +5764,7 @@
     </row>
     <row r="76" spans="1:10" ht="28.35" customHeight="1">
       <c r="A76" s="13"/>
-      <c r="B76" s="41"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="10" t="s">
         <v>277</v>
       </c>
@@ -5787,7 +5790,7 @@
     </row>
     <row r="77" spans="1:10" ht="28.35" customHeight="1">
       <c r="A77" s="13"/>
-      <c r="B77" s="41"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="10" t="s">
         <v>279</v>
       </c>
@@ -5813,7 +5816,7 @@
     </row>
     <row r="78" spans="1:10" ht="28.35" customHeight="1">
       <c r="A78" s="13"/>
-      <c r="B78" s="41"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="10" t="s">
         <v>282</v>
       </c>
@@ -5839,7 +5842,7 @@
     </row>
     <row r="79" spans="1:10" ht="28.35" customHeight="1">
       <c r="A79" s="13"/>
-      <c r="B79" s="41"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="10" t="s">
         <v>285</v>
       </c>
@@ -5865,7 +5868,7 @@
     </row>
     <row r="80" spans="1:10" ht="28.35" customHeight="1">
       <c r="A80" s="13"/>
-      <c r="B80" s="41"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="10" t="s">
         <v>288</v>
       </c>
@@ -5891,7 +5894,7 @@
     </row>
     <row r="81" spans="1:10" ht="28.35" customHeight="1">
       <c r="A81" s="13"/>
-      <c r="B81" s="41"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="10" t="s">
         <v>291</v>
       </c>
@@ -5917,7 +5920,7 @@
     </row>
     <row r="82" spans="1:10" ht="28.35" customHeight="1">
       <c r="A82" s="13"/>
-      <c r="B82" s="41"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="10" t="s">
         <v>294</v>
       </c>
@@ -5943,7 +5946,7 @@
     </row>
     <row r="83" spans="1:10" ht="28.35" customHeight="1">
       <c r="A83" s="13"/>
-      <c r="B83" s="41"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="10" t="s">
         <v>296</v>
       </c>
@@ -5969,7 +5972,7 @@
     </row>
     <row r="84" spans="1:10" ht="28.35" customHeight="1">
       <c r="A84" s="13"/>
-      <c r="B84" s="41"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="10" t="s">
         <v>299</v>
       </c>
@@ -5993,7 +5996,7 @@
     </row>
     <row r="85" spans="1:10" ht="28.35" customHeight="1">
       <c r="A85" s="13"/>
-      <c r="B85" s="41"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="10" t="s">
         <v>301</v>
       </c>
@@ -6017,7 +6020,7 @@
     </row>
     <row r="86" spans="1:10" ht="28.35" customHeight="1">
       <c r="A86" s="13"/>
-      <c r="B86" s="41"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="10" t="s">
         <v>303</v>
       </c>
@@ -6041,7 +6044,7 @@
     </row>
     <row r="87" spans="1:10" ht="28.35" customHeight="1">
       <c r="A87" s="13"/>
-      <c r="B87" s="41"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="10" t="s">
         <v>305</v>
       </c>
@@ -6067,7 +6070,7 @@
     </row>
     <row r="88" spans="1:10" ht="28.35" customHeight="1">
       <c r="A88" s="13"/>
-      <c r="B88" s="41"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="10" t="s">
         <v>308</v>
       </c>
@@ -6093,7 +6096,7 @@
     </row>
     <row r="89" spans="1:10" ht="28.35" customHeight="1">
       <c r="A89" s="13"/>
-      <c r="B89" s="41"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="10" t="s">
         <v>310</v>
       </c>
@@ -6119,7 +6122,7 @@
     </row>
     <row r="90" spans="1:10" ht="28.35" customHeight="1">
       <c r="A90" s="13"/>
-      <c r="B90" s="41"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="10" t="s">
         <v>313</v>
       </c>
@@ -6145,7 +6148,7 @@
     </row>
     <row r="91" spans="1:10" ht="28.35" customHeight="1">
       <c r="A91" s="13"/>
-      <c r="B91" s="41"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="10" t="s">
         <v>316</v>
       </c>
@@ -6171,7 +6174,7 @@
     </row>
     <row r="92" spans="1:10" ht="28.35" customHeight="1">
       <c r="A92" s="13"/>
-      <c r="B92" s="41"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="10" t="s">
         <v>318</v>
       </c>
@@ -6197,7 +6200,7 @@
     </row>
     <row r="93" spans="1:10" ht="28.35" customHeight="1">
       <c r="A93" s="13"/>
-      <c r="B93" s="41"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="10" t="s">
         <v>321</v>
       </c>
@@ -6223,7 +6226,7 @@
     </row>
     <row r="94" spans="1:10" ht="28.35" customHeight="1">
       <c r="A94" s="13"/>
-      <c r="B94" s="41"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="10" t="s">
         <v>324</v>
       </c>
@@ -6249,7 +6252,7 @@
     </row>
     <row r="95" spans="1:10" ht="28.35" customHeight="1">
       <c r="A95" s="13"/>
-      <c r="B95" s="41"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="10" t="s">
         <v>326</v>
       </c>
@@ -6275,7 +6278,7 @@
     </row>
     <row r="96" spans="1:10" ht="28.35" customHeight="1">
       <c r="A96" s="13"/>
-      <c r="B96" s="41"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="10" t="s">
         <v>329</v>
       </c>
@@ -6301,7 +6304,7 @@
     </row>
     <row r="97" spans="1:10" ht="28.35" customHeight="1">
       <c r="A97" s="13"/>
-      <c r="B97" s="41"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="10" t="s">
         <v>332</v>
       </c>
@@ -6327,7 +6330,7 @@
     </row>
     <row r="98" spans="1:10" ht="28.35" customHeight="1">
       <c r="A98" s="13"/>
-      <c r="B98" s="41"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="10" t="s">
         <v>334</v>
       </c>
@@ -6353,7 +6356,7 @@
     </row>
     <row r="99" spans="1:10" ht="28.35" customHeight="1">
       <c r="A99" s="13"/>
-      <c r="B99" s="41"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="10" t="s">
         <v>337</v>
       </c>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="100" spans="1:10" ht="28.35" customHeight="1">
       <c r="A100" s="13"/>
-      <c r="B100" s="41"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="10" t="s">
         <v>340</v>
       </c>
@@ -6405,7 +6408,7 @@
     </row>
     <row r="101" spans="1:10" ht="28.35" customHeight="1">
       <c r="A101" s="13"/>
-      <c r="B101" s="41"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="10" t="s">
         <v>342</v>
       </c>
@@ -6431,7 +6434,7 @@
     </row>
     <row r="102" spans="1:10" ht="28.35" customHeight="1">
       <c r="A102" s="13"/>
-      <c r="B102" s="41"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="10" t="s">
         <v>345</v>
       </c>
@@ -6457,7 +6460,7 @@
     </row>
     <row r="103" spans="1:10" ht="28.35" customHeight="1">
       <c r="A103" s="13"/>
-      <c r="B103" s="41"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="10" t="s">
         <v>348</v>
       </c>
@@ -6483,7 +6486,7 @@
     </row>
     <row r="104" spans="1:10" ht="28.35" customHeight="1">
       <c r="A104" s="13"/>
-      <c r="B104" s="41"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="10" t="s">
         <v>350</v>
       </c>
@@ -6509,7 +6512,7 @@
     </row>
     <row r="105" spans="1:10" ht="28.35" customHeight="1">
       <c r="A105" s="13"/>
-      <c r="B105" s="41"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="10" t="s">
         <v>353</v>
       </c>
@@ -6535,7 +6538,7 @@
     </row>
     <row r="106" spans="1:10" ht="28.35" customHeight="1">
       <c r="A106" s="13"/>
-      <c r="B106" s="41"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="10" t="s">
         <v>356</v>
       </c>
@@ -6561,7 +6564,7 @@
     </row>
     <row r="107" spans="1:10" ht="28.35" customHeight="1">
       <c r="A107" s="13"/>
-      <c r="B107" s="41"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="10" t="s">
         <v>358</v>
       </c>
@@ -6587,7 +6590,7 @@
     </row>
     <row r="108" spans="1:10" ht="28.35" customHeight="1">
       <c r="A108" s="13"/>
-      <c r="B108" s="41"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="10" t="s">
         <v>361</v>
       </c>
@@ -6613,7 +6616,7 @@
     </row>
     <row r="109" spans="1:10" ht="28.35" customHeight="1">
       <c r="A109" s="13"/>
-      <c r="B109" s="41"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="10" t="s">
         <v>364</v>
       </c>
@@ -6639,7 +6642,7 @@
     </row>
     <row r="110" spans="1:10" ht="28.35" customHeight="1">
       <c r="A110" s="13"/>
-      <c r="B110" s="41"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="10" t="s">
         <v>366</v>
       </c>
@@ -6665,7 +6668,7 @@
     </row>
     <row r="111" spans="1:10" ht="28.35" customHeight="1">
       <c r="A111" s="13"/>
-      <c r="B111" s="41"/>
+      <c r="B111" s="39"/>
       <c r="C111" s="10" t="s">
         <v>369</v>
       </c>
@@ -6691,7 +6694,7 @@
     </row>
     <row r="112" spans="1:10" ht="28.35" customHeight="1">
       <c r="A112" s="13"/>
-      <c r="B112" s="41"/>
+      <c r="B112" s="39"/>
       <c r="C112" s="10" t="s">
         <v>372</v>
       </c>
@@ -6717,7 +6720,7 @@
     </row>
     <row r="113" spans="1:10" ht="28.35" customHeight="1">
       <c r="A113" s="13"/>
-      <c r="B113" s="41"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="10" t="s">
         <v>374</v>
       </c>
@@ -6743,7 +6746,7 @@
     </row>
     <row r="114" spans="1:10" ht="28.35" customHeight="1">
       <c r="A114" s="13"/>
-      <c r="B114" s="41"/>
+      <c r="B114" s="39"/>
       <c r="C114" s="10" t="s">
         <v>377</v>
       </c>
@@ -6769,7 +6772,7 @@
     </row>
     <row r="115" spans="1:10" ht="28.35" customHeight="1">
       <c r="A115" s="13"/>
-      <c r="B115" s="41"/>
+      <c r="B115" s="39"/>
       <c r="C115" s="10" t="s">
         <v>380</v>
       </c>
@@ -6795,7 +6798,7 @@
     </row>
     <row r="116" spans="1:10" ht="28.35" customHeight="1">
       <c r="A116" s="13"/>
-      <c r="B116" s="41"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="10" t="s">
         <v>382</v>
       </c>
@@ -6821,7 +6824,7 @@
     </row>
     <row r="117" spans="1:10" ht="28.35" customHeight="1">
       <c r="A117" s="13"/>
-      <c r="B117" s="41" t="s">
+      <c r="B117" s="39" t="s">
         <v>385</v>
       </c>
       <c r="C117" s="10" t="s">
@@ -6849,7 +6852,7 @@
     </row>
     <row r="118" spans="1:10" ht="28.35" customHeight="1">
       <c r="A118" s="13"/>
-      <c r="B118" s="41"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="10" t="s">
         <v>389</v>
       </c>
@@ -6875,7 +6878,7 @@
     </row>
     <row r="119" spans="1:10" ht="28.35" customHeight="1">
       <c r="A119" s="13"/>
-      <c r="B119" s="41"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="10" t="s">
         <v>391</v>
       </c>
@@ -6901,7 +6904,7 @@
     </row>
     <row r="120" spans="1:10" ht="28.35" customHeight="1">
       <c r="A120" s="13"/>
-      <c r="B120" s="41"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="10" t="s">
         <v>394</v>
       </c>
@@ -6927,7 +6930,7 @@
     </row>
     <row r="121" spans="1:10" ht="28.35" customHeight="1">
       <c r="A121" s="13"/>
-      <c r="B121" s="41"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="10" t="s">
         <v>397</v>
       </c>
@@ -6953,7 +6956,7 @@
     </row>
     <row r="122" spans="1:10" ht="28.35" customHeight="1">
       <c r="A122" s="13"/>
-      <c r="B122" s="41"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="10" t="s">
         <v>399</v>
       </c>
@@ -6979,7 +6982,7 @@
     </row>
     <row r="123" spans="1:10" ht="28.35" customHeight="1">
       <c r="A123" s="13"/>
-      <c r="B123" s="41"/>
+      <c r="B123" s="39"/>
       <c r="C123" s="10" t="s">
         <v>402</v>
       </c>
@@ -7005,7 +7008,7 @@
     </row>
     <row r="124" spans="1:10" ht="28.35" customHeight="1">
       <c r="A124" s="13"/>
-      <c r="B124" s="41"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="10" t="s">
         <v>405</v>
       </c>
@@ -7031,7 +7034,7 @@
     </row>
     <row r="125" spans="1:10" ht="28.35" customHeight="1">
       <c r="A125" s="13"/>
-      <c r="B125" s="41"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="10" t="s">
         <v>407</v>
       </c>
@@ -7057,7 +7060,7 @@
     </row>
     <row r="126" spans="1:10" ht="28.35" customHeight="1">
       <c r="A126" s="13"/>
-      <c r="B126" s="41"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="10" t="s">
         <v>410</v>
       </c>
@@ -7083,7 +7086,7 @@
     </row>
     <row r="127" spans="1:10" ht="28.35" customHeight="1">
       <c r="A127" s="13"/>
-      <c r="B127" s="41"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="10" t="s">
         <v>413</v>
       </c>
@@ -7109,7 +7112,7 @@
     </row>
     <row r="128" spans="1:10" ht="28.35" customHeight="1">
       <c r="A128" s="13"/>
-      <c r="B128" s="41"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="10" t="s">
         <v>415</v>
       </c>
@@ -7135,7 +7138,7 @@
     </row>
     <row r="129" spans="1:10" ht="28.35" customHeight="1">
       <c r="A129" s="13"/>
-      <c r="B129" s="41"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="10" t="s">
         <v>418</v>
       </c>
@@ -7161,7 +7164,7 @@
     </row>
     <row r="130" spans="1:10" ht="28.35" customHeight="1">
       <c r="A130" s="13"/>
-      <c r="B130" s="41"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="10" t="s">
         <v>421</v>
       </c>
@@ -7187,7 +7190,7 @@
     </row>
     <row r="131" spans="1:10" ht="28.35" customHeight="1">
       <c r="A131" s="13"/>
-      <c r="B131" s="41"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="10" t="s">
         <v>423</v>
       </c>
@@ -7213,7 +7216,7 @@
     </row>
     <row r="132" spans="1:10" ht="28.35" customHeight="1">
       <c r="A132" s="13"/>
-      <c r="B132" s="41"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="10" t="s">
         <v>426</v>
       </c>
@@ -7239,7 +7242,7 @@
     </row>
     <row r="133" spans="1:10" ht="28.35" customHeight="1">
       <c r="A133" s="13"/>
-      <c r="B133" s="41"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="10" t="s">
         <v>429</v>
       </c>
@@ -7265,7 +7268,7 @@
     </row>
     <row r="134" spans="1:10" ht="28.35" customHeight="1">
       <c r="A134" s="13"/>
-      <c r="B134" s="41"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="10" t="s">
         <v>431</v>
       </c>
@@ -7291,7 +7294,7 @@
     </row>
     <row r="135" spans="1:10" ht="28.35" customHeight="1">
       <c r="A135" s="13"/>
-      <c r="B135" s="41"/>
+      <c r="B135" s="39"/>
       <c r="C135" s="10" t="s">
         <v>434</v>
       </c>
@@ -7317,7 +7320,7 @@
     </row>
     <row r="136" spans="1:10" ht="28.35" customHeight="1">
       <c r="A136" s="13"/>
-      <c r="B136" s="41"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="10" t="s">
         <v>437</v>
       </c>
@@ -7343,7 +7346,7 @@
     </row>
     <row r="137" spans="1:10" ht="28.35" customHeight="1">
       <c r="A137" s="13"/>
-      <c r="B137" s="41"/>
+      <c r="B137" s="39"/>
       <c r="C137" s="10" t="s">
         <v>439</v>
       </c>
@@ -7369,7 +7372,7 @@
     </row>
     <row r="138" spans="1:10" ht="28.35" customHeight="1">
       <c r="A138" s="13"/>
-      <c r="B138" s="41"/>
+      <c r="B138" s="39"/>
       <c r="C138" s="10" t="s">
         <v>442</v>
       </c>
@@ -7395,7 +7398,7 @@
     </row>
     <row r="139" spans="1:10" ht="28.35" customHeight="1">
       <c r="A139" s="13"/>
-      <c r="B139" s="41"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="10" t="s">
         <v>445</v>
       </c>
@@ -7421,7 +7424,7 @@
     </row>
     <row r="140" spans="1:10" ht="28.35" customHeight="1">
       <c r="A140" s="13"/>
-      <c r="B140" s="41"/>
+      <c r="B140" s="39"/>
       <c r="C140" s="10" t="s">
         <v>447</v>
       </c>
@@ -7447,7 +7450,7 @@
     </row>
     <row r="141" spans="1:10" ht="28.35" customHeight="1">
       <c r="A141" s="13"/>
-      <c r="B141" s="41"/>
+      <c r="B141" s="39"/>
       <c r="C141" s="10" t="s">
         <v>450</v>
       </c>
@@ -7473,7 +7476,7 @@
     </row>
     <row r="142" spans="1:10" ht="28.35" customHeight="1">
       <c r="A142" s="13"/>
-      <c r="B142" s="41"/>
+      <c r="B142" s="39"/>
       <c r="C142" s="10" t="s">
         <v>453</v>
       </c>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="143" spans="1:10" ht="28.35" customHeight="1">
       <c r="A143" s="13"/>
-      <c r="B143" s="41"/>
+      <c r="B143" s="39"/>
       <c r="C143" s="10" t="s">
         <v>455</v>
       </c>
@@ -7525,7 +7528,7 @@
     </row>
     <row r="144" spans="1:10" ht="28.35" customHeight="1">
       <c r="A144" s="13"/>
-      <c r="B144" s="41"/>
+      <c r="B144" s="39"/>
       <c r="C144" s="10" t="s">
         <v>458</v>
       </c>
@@ -7551,7 +7554,7 @@
     </row>
     <row r="145" spans="1:10" ht="28.35" customHeight="1">
       <c r="A145" s="13"/>
-      <c r="B145" s="41"/>
+      <c r="B145" s="39"/>
       <c r="C145" s="10" t="s">
         <v>461</v>
       </c>
@@ -7577,7 +7580,7 @@
     </row>
     <row r="146" spans="1:10" ht="28.35" customHeight="1">
       <c r="A146" s="13"/>
-      <c r="B146" s="41"/>
+      <c r="B146" s="39"/>
       <c r="C146" s="10" t="s">
         <v>463</v>
       </c>
@@ -7603,7 +7606,7 @@
     </row>
     <row r="147" spans="1:10" ht="28.35" customHeight="1">
       <c r="A147" s="13"/>
-      <c r="B147" s="41"/>
+      <c r="B147" s="39"/>
       <c r="C147" s="10" t="s">
         <v>466</v>
       </c>
@@ -7629,7 +7632,7 @@
     </row>
     <row r="148" spans="1:10" ht="28.35" customHeight="1">
       <c r="A148" s="13"/>
-      <c r="B148" s="41"/>
+      <c r="B148" s="39"/>
       <c r="C148" s="10" t="s">
         <v>469</v>
       </c>
@@ -7655,7 +7658,7 @@
     </row>
     <row r="149" spans="1:10" ht="28.35" customHeight="1">
       <c r="A149" s="13"/>
-      <c r="B149" s="41"/>
+      <c r="B149" s="39"/>
       <c r="C149" s="10" t="s">
         <v>471</v>
       </c>
@@ -7681,7 +7684,7 @@
     </row>
     <row r="150" spans="1:10" ht="28.35" customHeight="1">
       <c r="A150" s="13"/>
-      <c r="B150" s="41"/>
+      <c r="B150" s="39"/>
       <c r="C150" s="10" t="s">
         <v>474</v>
       </c>
@@ -7707,7 +7710,7 @@
     </row>
     <row r="151" spans="1:10" ht="28.35" customHeight="1">
       <c r="A151" s="13"/>
-      <c r="B151" s="41"/>
+      <c r="B151" s="39"/>
       <c r="C151" s="10" t="s">
         <v>477</v>
       </c>
@@ -7733,7 +7736,7 @@
     </row>
     <row r="152" spans="1:10" ht="28.35" customHeight="1">
       <c r="A152" s="13"/>
-      <c r="B152" s="41"/>
+      <c r="B152" s="39"/>
       <c r="C152" s="10" t="s">
         <v>479</v>
       </c>
@@ -7759,7 +7762,7 @@
     </row>
     <row r="153" spans="1:10" ht="28.35" customHeight="1">
       <c r="A153" s="13"/>
-      <c r="B153" s="41"/>
+      <c r="B153" s="39"/>
       <c r="C153" s="10" t="s">
         <v>482</v>
       </c>
@@ -7785,7 +7788,7 @@
     </row>
     <row r="154" spans="1:10" ht="28.35" customHeight="1">
       <c r="A154" s="13"/>
-      <c r="B154" s="41"/>
+      <c r="B154" s="39"/>
       <c r="C154" s="10" t="s">
         <v>485</v>
       </c>
@@ -7811,7 +7814,7 @@
     </row>
     <row r="155" spans="1:10" ht="28.35" customHeight="1">
       <c r="A155" s="13"/>
-      <c r="B155" s="41"/>
+      <c r="B155" s="39"/>
       <c r="C155" s="10" t="s">
         <v>487</v>
       </c>
@@ -7837,7 +7840,7 @@
     </row>
     <row r="156" spans="1:10" ht="28.35" customHeight="1">
       <c r="A156" s="13"/>
-      <c r="B156" s="41"/>
+      <c r="B156" s="39"/>
       <c r="C156" s="10" t="s">
         <v>490</v>
       </c>
@@ -7863,7 +7866,7 @@
     </row>
     <row r="157" spans="1:10" ht="28.35" customHeight="1">
       <c r="A157" s="13"/>
-      <c r="B157" s="41"/>
+      <c r="B157" s="39"/>
       <c r="C157" s="10" t="s">
         <v>493</v>
       </c>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="158" spans="1:10" ht="28.35" customHeight="1">
       <c r="A158" s="13"/>
-      <c r="B158" s="41"/>
+      <c r="B158" s="39"/>
       <c r="C158" s="10" t="s">
         <v>495</v>
       </c>
@@ -7915,7 +7918,7 @@
     </row>
     <row r="159" spans="1:10" ht="28.35" customHeight="1">
       <c r="A159" s="13"/>
-      <c r="B159" s="41"/>
+      <c r="B159" s="39"/>
       <c r="C159" s="10" t="s">
         <v>498</v>
       </c>
@@ -7941,7 +7944,7 @@
     </row>
     <row r="160" spans="1:10" ht="28.35" customHeight="1">
       <c r="A160" s="13"/>
-      <c r="B160" s="41"/>
+      <c r="B160" s="39"/>
       <c r="C160" s="10" t="s">
         <v>501</v>
       </c>
@@ -7967,7 +7970,7 @@
     </row>
     <row r="161" spans="1:10" ht="28.35" customHeight="1">
       <c r="A161" s="13"/>
-      <c r="B161" s="41"/>
+      <c r="B161" s="39"/>
       <c r="C161" s="10" t="s">
         <v>503</v>
       </c>
@@ -7993,7 +7996,7 @@
     </row>
     <row r="162" spans="1:10" ht="28.35" customHeight="1">
       <c r="A162" s="13"/>
-      <c r="B162" s="41"/>
+      <c r="B162" s="39"/>
       <c r="C162" s="10" t="s">
         <v>506</v>
       </c>
@@ -8019,7 +8022,7 @@
     </row>
     <row r="163" spans="1:10" ht="28.35" customHeight="1">
       <c r="A163" s="13"/>
-      <c r="B163" s="41"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="10" t="s">
         <v>509</v>
       </c>
@@ -8045,7 +8048,7 @@
     </row>
     <row r="164" spans="1:10" ht="28.35" customHeight="1">
       <c r="A164" s="13"/>
-      <c r="B164" s="41"/>
+      <c r="B164" s="39"/>
       <c r="C164" s="10" t="s">
         <v>511</v>
       </c>
@@ -8071,7 +8074,7 @@
     </row>
     <row r="165" spans="1:10" ht="28.35" customHeight="1">
       <c r="A165" s="13"/>
-      <c r="B165" s="41"/>
+      <c r="B165" s="39"/>
       <c r="C165" s="10" t="s">
         <v>514</v>
       </c>
@@ -8097,7 +8100,7 @@
     </row>
     <row r="166" spans="1:10" ht="28.35" customHeight="1">
       <c r="A166" s="13"/>
-      <c r="B166" s="41"/>
+      <c r="B166" s="39"/>
       <c r="C166" s="10" t="s">
         <v>517</v>
       </c>
@@ -8123,7 +8126,7 @@
     </row>
     <row r="167" spans="1:10" ht="28.35" customHeight="1">
       <c r="A167" s="13"/>
-      <c r="B167" s="41"/>
+      <c r="B167" s="39"/>
       <c r="C167" s="10" t="s">
         <v>519</v>
       </c>
@@ -8149,7 +8152,7 @@
     </row>
     <row r="168" spans="1:10" ht="28.35" customHeight="1">
       <c r="A168" s="13"/>
-      <c r="B168" s="41"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="10" t="s">
         <v>522</v>
       </c>
@@ -8175,7 +8178,7 @@
     </row>
     <row r="169" spans="1:10" ht="28.35" customHeight="1">
       <c r="A169" s="13"/>
-      <c r="B169" s="41"/>
+      <c r="B169" s="39"/>
       <c r="C169" s="10" t="s">
         <v>525</v>
       </c>
@@ -8201,7 +8204,7 @@
     </row>
     <row r="170" spans="1:10" ht="28.35" customHeight="1">
       <c r="A170" s="13"/>
-      <c r="B170" s="41"/>
+      <c r="B170" s="39"/>
       <c r="C170" s="10" t="s">
         <v>527</v>
       </c>
@@ -8227,7 +8230,7 @@
     </row>
     <row r="171" spans="1:10" ht="28.35" customHeight="1">
       <c r="A171" s="13"/>
-      <c r="B171" s="41"/>
+      <c r="B171" s="39"/>
       <c r="C171" s="10" t="s">
         <v>530</v>
       </c>
@@ -8253,7 +8256,7 @@
     </row>
     <row r="172" spans="1:10" ht="28.35" customHeight="1">
       <c r="A172" s="13"/>
-      <c r="B172" s="41"/>
+      <c r="B172" s="39"/>
       <c r="C172" s="10" t="s">
         <v>533</v>
       </c>
@@ -8279,7 +8282,7 @@
     </row>
     <row r="173" spans="1:10" ht="28.35" customHeight="1">
       <c r="A173" s="13"/>
-      <c r="B173" s="41"/>
+      <c r="B173" s="39"/>
       <c r="C173" s="10" t="s">
         <v>535</v>
       </c>
@@ -8304,10 +8307,10 @@
       </c>
     </row>
     <row r="174" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A174" s="42" t="s">
+      <c r="A174" s="51" t="s">
         <v>538</v>
       </c>
-      <c r="B174" s="43" t="s">
+      <c r="B174" s="52" t="s">
         <v>539</v>
       </c>
       <c r="C174" s="6" t="s">
@@ -8328,8 +8331,8 @@
       <c r="J174" s="6"/>
     </row>
     <row r="175" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A175" s="42"/>
-      <c r="B175" s="43"/>
+      <c r="A175" s="51"/>
+      <c r="B175" s="52"/>
       <c r="C175" s="6" t="s">
         <v>543</v>
       </c>
@@ -8348,8 +8351,8 @@
       <c r="J175" s="6"/>
     </row>
     <row r="176" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A176" s="42"/>
-      <c r="B176" s="44" t="s">
+      <c r="A176" s="51"/>
+      <c r="B176" s="53" t="s">
         <v>545</v>
       </c>
       <c r="C176" s="6" t="s">
@@ -8370,8 +8373,8 @@
       <c r="J176" s="6"/>
     </row>
     <row r="177" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A177" s="42"/>
-      <c r="B177" s="44"/>
+      <c r="A177" s="51"/>
+      <c r="B177" s="53"/>
       <c r="C177" s="6" t="s">
         <v>27</v>
       </c>
@@ -8392,8 +8395,8 @@
       <c r="J177" s="6"/>
     </row>
     <row r="178" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A178" s="42"/>
-      <c r="B178" s="44"/>
+      <c r="A178" s="51"/>
+      <c r="B178" s="53"/>
       <c r="C178" s="6" t="s">
         <v>26</v>
       </c>
@@ -8414,8 +8417,8 @@
       <c r="J178" s="6"/>
     </row>
     <row r="179" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A179" s="42"/>
-      <c r="B179" s="44"/>
+      <c r="A179" s="51"/>
+      <c r="B179" s="53"/>
       <c r="C179" s="6" t="s">
         <v>553</v>
       </c>
@@ -8436,8 +8439,8 @@
       <c r="J179" s="6"/>
     </row>
     <row r="180" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A180" s="42"/>
-      <c r="B180" s="44"/>
+      <c r="A180" s="51"/>
+      <c r="B180" s="53"/>
       <c r="C180" s="6" t="s">
         <v>557</v>
       </c>
@@ -8456,8 +8459,8 @@
       <c r="J180" s="6"/>
     </row>
     <row r="181" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A181" s="42"/>
-      <c r="B181" s="44"/>
+      <c r="A181" s="51"/>
+      <c r="B181" s="53"/>
       <c r="C181" s="6" t="s">
         <v>560</v>
       </c>
@@ -8476,8 +8479,8 @@
       <c r="J181" s="6"/>
     </row>
     <row r="182" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A182" s="42"/>
-      <c r="B182" s="44"/>
+      <c r="A182" s="51"/>
+      <c r="B182" s="53"/>
       <c r="C182" s="6" t="s">
         <v>562</v>
       </c>
@@ -8498,8 +8501,8 @@
       <c r="J182" s="6"/>
     </row>
     <row r="183" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A183" s="42"/>
-      <c r="B183" s="44" t="s">
+      <c r="A183" s="51"/>
+      <c r="B183" s="53" t="s">
         <v>565</v>
       </c>
       <c r="C183" s="6" t="s">
@@ -8522,8 +8525,8 @@
       <c r="J183" s="6"/>
     </row>
     <row r="184" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A184" s="42"/>
-      <c r="B184" s="44"/>
+      <c r="A184" s="51"/>
+      <c r="B184" s="53"/>
       <c r="C184" s="6" t="s">
         <v>570</v>
       </c>
@@ -8544,8 +8547,8 @@
       <c r="J184" s="6"/>
     </row>
     <row r="185" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A185" s="42"/>
-      <c r="B185" s="44"/>
+      <c r="A185" s="51"/>
+      <c r="B185" s="53"/>
       <c r="C185" s="6" t="s">
         <v>574</v>
       </c>
@@ -8566,8 +8569,8 @@
       <c r="J185" s="6"/>
     </row>
     <row r="186" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A186" s="42"/>
-      <c r="B186" s="44"/>
+      <c r="A186" s="51"/>
+      <c r="B186" s="53"/>
       <c r="C186" s="6" t="s">
         <v>577</v>
       </c>
@@ -8588,8 +8591,8 @@
       <c r="J186" s="6"/>
     </row>
     <row r="187" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A187" s="42"/>
-      <c r="B187" s="44"/>
+      <c r="A187" s="51"/>
+      <c r="B187" s="53"/>
       <c r="C187" s="6" t="s">
         <v>581</v>
       </c>
@@ -8608,8 +8611,8 @@
       <c r="J187" s="6"/>
     </row>
     <row r="188" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A188" s="42"/>
-      <c r="B188" s="44" t="s">
+      <c r="A188" s="51"/>
+      <c r="B188" s="53" t="s">
         <v>584</v>
       </c>
       <c r="C188" s="6" t="s">
@@ -8630,8 +8633,8 @@
       <c r="J188" s="6"/>
     </row>
     <row r="189" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A189" s="42"/>
-      <c r="B189" s="44"/>
+      <c r="A189" s="51"/>
+      <c r="B189" s="53"/>
       <c r="C189" s="6" t="s">
         <v>588</v>
       </c>
@@ -8652,8 +8655,8 @@
       <c r="J189" s="6"/>
     </row>
     <row r="190" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A190" s="42"/>
-      <c r="B190" s="44" t="s">
+      <c r="A190" s="51"/>
+      <c r="B190" s="53" t="s">
         <v>592</v>
       </c>
       <c r="C190" s="6" t="s">
@@ -8674,8 +8677,8 @@
       <c r="J190" s="6"/>
     </row>
     <row r="191" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A191" s="42"/>
-      <c r="B191" s="44"/>
+      <c r="A191" s="51"/>
+      <c r="B191" s="53"/>
       <c r="C191" s="6" t="s">
         <v>595</v>
       </c>
@@ -8696,8 +8699,8 @@
       <c r="J191" s="6"/>
     </row>
     <row r="192" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A192" s="42"/>
-      <c r="B192" s="44"/>
+      <c r="A192" s="51"/>
+      <c r="B192" s="53"/>
       <c r="C192" s="6" t="s">
         <v>599</v>
       </c>
@@ -8718,8 +8721,8 @@
       <c r="J192" s="6"/>
     </row>
     <row r="193" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A193" s="42"/>
-      <c r="B193" s="44"/>
+      <c r="A193" s="51"/>
+      <c r="B193" s="53"/>
       <c r="C193" s="6" t="s">
         <v>603</v>
       </c>
@@ -8738,8 +8741,8 @@
       <c r="J193" s="6"/>
     </row>
     <row r="194" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A194" s="42"/>
-      <c r="B194" s="44"/>
+      <c r="A194" s="51"/>
+      <c r="B194" s="53"/>
       <c r="C194" s="6" t="s">
         <v>606</v>
       </c>
@@ -8760,8 +8763,8 @@
       <c r="J194" s="6"/>
     </row>
     <row r="195" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A195" s="42"/>
-      <c r="B195" s="44" t="s">
+      <c r="A195" s="51"/>
+      <c r="B195" s="53" t="s">
         <v>609</v>
       </c>
       <c r="C195" s="6" t="s">
@@ -8782,8 +8785,8 @@
       <c r="J195" s="6"/>
     </row>
     <row r="196" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A196" s="42"/>
-      <c r="B196" s="44"/>
+      <c r="A196" s="51"/>
+      <c r="B196" s="53"/>
       <c r="C196" s="6" t="s">
         <v>612</v>
       </c>
@@ -8802,8 +8805,8 @@
       <c r="J196" s="6"/>
     </row>
     <row r="197" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A197" s="42"/>
-      <c r="B197" s="44"/>
+      <c r="A197" s="51"/>
+      <c r="B197" s="53"/>
       <c r="C197" s="6" t="s">
         <v>616</v>
       </c>
@@ -8822,8 +8825,8 @@
       <c r="J197" s="6"/>
     </row>
     <row r="198" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A198" s="42"/>
-      <c r="B198" s="44"/>
+      <c r="A198" s="51"/>
+      <c r="B198" s="53"/>
       <c r="C198" s="6" t="s">
         <v>619</v>
       </c>
@@ -8842,8 +8845,8 @@
       <c r="J198" s="6"/>
     </row>
     <row r="199" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A199" s="42"/>
-      <c r="B199" s="44" t="s">
+      <c r="A199" s="51"/>
+      <c r="B199" s="53" t="s">
         <v>621</v>
       </c>
       <c r="C199" s="6" t="s">
@@ -8864,8 +8867,8 @@
       <c r="J199" s="6"/>
     </row>
     <row r="200" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A200" s="42"/>
-      <c r="B200" s="44"/>
+      <c r="A200" s="51"/>
+      <c r="B200" s="53"/>
       <c r="C200" s="6" t="s">
         <v>624</v>
       </c>
@@ -8884,8 +8887,8 @@
       <c r="J200" s="6"/>
     </row>
     <row r="201" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A201" s="42"/>
-      <c r="B201" s="44"/>
+      <c r="A201" s="51"/>
+      <c r="B201" s="53"/>
       <c r="C201" s="6" t="s">
         <v>626</v>
       </c>
@@ -8904,8 +8907,8 @@
       <c r="J201" s="6"/>
     </row>
     <row r="202" spans="1:10" ht="28.35" customHeight="1">
-      <c r="A202" s="42"/>
-      <c r="B202" s="44"/>
+      <c r="A202" s="51"/>
+      <c r="B202" s="53"/>
       <c r="C202" s="6" t="s">
         <v>628</v>
       </c>
@@ -8933,6 +8936,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B71"/>
+    <mergeCell ref="B72:B116"/>
+    <mergeCell ref="B117:B173"/>
+    <mergeCell ref="A174:A202"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B176:B182"/>
+    <mergeCell ref="B183:B187"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="B190:B194"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="B199:B202"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="G4:G6"/>
@@ -8945,19 +8961,6 @@
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A174:A202"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="B176:B182"/>
-    <mergeCell ref="B183:B187"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="B190:B194"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B71"/>
-    <mergeCell ref="B72:B116"/>
-    <mergeCell ref="B117:B173"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G9 G11:G13">
@@ -9010,207 +9013,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="49.375" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="54" t="s">
-        <v>673</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C5" t="s">
+        <v>693</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I17"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9218,991 +9089,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A1" s="54" t="s">
-        <v>672</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54"/>
-      <c r="V37" s="54"/>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-    </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:V40"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10214,7 +9103,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B1" t="s">
         <v>632</v>
@@ -10222,17 +9111,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B2" t="s">
         <v>679</v>
       </c>
-      <c r="B2" t="s">
-        <v>681</v>
-      </c>
       <c r="C2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>